--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C9B219-34FB-4042-BAE9-3DE504E93AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45E67C0-FD0A-4DA0-BA5F-439ECDA67753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -465,10 +465,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH4,S2aH2,S3aH5,S5aH3,S4aH2,S1aH3,S3aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH2,S2aH3,S4aH5,S5aH4,S3aH4,S4aH3,S4aH4,S3aH2</t>
-  </si>
-  <si>
-    <t>S4aH1,S1aH8,S5aH1,S2aH1,S3aH7,S5aH8,S2aH8,S4aH8,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4aH6,S1aH6,S2aH6,S3aH1,S3aH8,S1aH1,S2aH7</t>
+    <t>S1aH2,S2aH3,S3aH2,S3aH4,S4aH3,S4aH4,S4aH2,S1aH4,S2aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5aH4,S1aH3,S3aH3,S4aH5,S3aH5,S5aH3</t>
+  </si>
+  <si>
+    <t>S3aH8,S2aH1,S3aH7,S5aH8,S4aH1,S1aH6,S2aH6,S3aH1,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4aH6,S1aH1,S2aH7,S4aH8,S2aH8,S1aH8,S5aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4aH1,S1aH8,S5aH1,S2aH1,S3aH7,S5aH8,S2aH8,S4aH8,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4aH6,S1aH6,S2aH6,S3aH1,S3aH8,S1aH1,S2aH7</v>
+        <v>S3aH8,S2aH1,S3aH7,S5aH8,S4aH1,S1aH6,S2aH6,S3aH1,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4aH6,S1aH1,S2aH7,S4aH8,S2aH8,S1aH8,S5aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH4,S2aH2,S3aH5,S5aH3,S4aH2,S1aH3,S3aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH2,S2aH3,S4aH5,S5aH4,S3aH4,S4aH3,S4aH4,S3aH2</v>
+        <v>S1aH2,S2aH3,S3aH2,S3aH4,S4aH3,S4aH4,S4aH2,S1aH4,S2aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5aH4,S1aH3,S3aH3,S4aH5,S3aH5,S5aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1685,7 +1685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EED0E44-F026-479B-8289-7F8E53CBFA6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2E783E-3D51-489F-8D04-38505EFDB025}">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1805,7 +1805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1D0C25-8E74-4CF5-A2EE-40100B463851}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B612DCA7-ECE0-4F95-96FF-CEE04D5701E8}">
   <dimension ref="B2:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1875,7 +1875,7 @@
         <v>94</v>
       </c>
       <c r="I4">
-        <v>0.11049962845663779</v>
+        <v>6.9102744882046332E-2</v>
       </c>
       <c r="J4" t="s">
         <v>95</v>
@@ -1887,7 +1887,7 @@
         <v>81</v>
       </c>
       <c r="N4">
-        <v>9.3706617306802395E-2</v>
+        <v>0.63189495603887091</v>
       </c>
       <c r="O4" t="s">
         <v>148</v>
@@ -1910,7 +1910,7 @@
         <v>97</v>
       </c>
       <c r="I5">
-        <v>1.4747143922040471E-2</v>
+        <v>9.0283313245061378E-3</v>
       </c>
       <c r="J5" t="s">
         <v>95</v>
@@ -1919,10 +1919,10 @@
         <v>137</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.63189495603887091</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O5" t="s">
         <v>148</v>
@@ -1933,7 +1933,7 @@
         <v>98</v>
       </c>
       <c r="C6">
-        <v>2.9720800000000002E-3</v>
+        <v>8.8889999999999998E-5</v>
       </c>
       <c r="D6" t="s">
         <v>95</v>
@@ -1945,7 +1945,7 @@
         <v>98</v>
       </c>
       <c r="I6">
-        <v>1.5814737807127725E-2</v>
+        <v>9.435445555022199E-3</v>
       </c>
       <c r="J6" t="s">
         <v>95</v>
@@ -1954,10 +1954,10 @@
         <v>137</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="N6">
-        <v>0.22322998611753814</v>
+        <v>0.18220731142989358</v>
       </c>
       <c r="O6" t="s">
         <v>148</v>
@@ -1968,7 +1968,7 @@
         <v>99</v>
       </c>
       <c r="C7">
-        <v>1.4208719999999999E-2</v>
+        <v>9.5477800000000005E-3</v>
       </c>
       <c r="D7" t="s">
         <v>95</v>
@@ -1980,7 +1980,7 @@
         <v>99</v>
       </c>
       <c r="I7">
-        <v>1.7038109932708868E-2</v>
+        <v>1.0138048170267647E-2</v>
       </c>
       <c r="J7" t="s">
         <v>95</v>
@@ -1989,10 +1989,10 @@
         <v>137</v>
       </c>
       <c r="M7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N7">
-        <v>8.8500694123091153E-2</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O7" t="s">
         <v>148</v>
@@ -2003,7 +2003,7 @@
         <v>100</v>
       </c>
       <c r="C8">
-        <v>0.16058636000000001</v>
+        <v>0.11259713</v>
       </c>
       <c r="D8" t="s">
         <v>95</v>
@@ -2015,7 +2015,7 @@
         <v>100</v>
       </c>
       <c r="I8">
-        <v>0.14319555421996533</v>
+        <v>8.6129717336578329E-2</v>
       </c>
       <c r="J8" t="s">
         <v>95</v>
@@ -2024,10 +2024,10 @@
         <v>137</v>
       </c>
       <c r="M8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="N8">
-        <v>0.16266774641369736</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O8" t="s">
         <v>148</v>
@@ -2038,7 +2038,7 @@
         <v>101</v>
       </c>
       <c r="C9">
-        <v>5.7471099999999997E-3</v>
+        <v>2.6397600000000001E-3</v>
       </c>
       <c r="D9" t="s">
         <v>95</v>
@@ -2050,7 +2050,7 @@
         <v>101</v>
       </c>
       <c r="I9">
-        <v>1.6405874978589897E-2</v>
+        <v>9.9736640136369667E-3</v>
       </c>
       <c r="J9" t="s">
         <v>95</v>
@@ -2064,7 +2064,7 @@
         <v>102</v>
       </c>
       <c r="C10">
-        <v>2.9050000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>95</v>
@@ -2076,7 +2076,7 @@
         <v>102</v>
       </c>
       <c r="I10">
-        <v>1.6514927418335153E-2</v>
+        <v>9.999990864058169E-3</v>
       </c>
       <c r="J10" t="s">
         <v>95</v>
@@ -2102,7 +2102,7 @@
         <v>103</v>
       </c>
       <c r="I11">
-        <v>6.796158226978237E-2</v>
+        <v>4.0903710182698352E-2</v>
       </c>
       <c r="J11" t="s">
         <v>95</v>
@@ -2116,7 +2116,7 @@
         <v>104</v>
       </c>
       <c r="C12">
-        <v>3.1587199999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>95</v>
@@ -2128,7 +2128,7 @@
         <v>104</v>
       </c>
       <c r="I12">
-        <v>7.8546642925202359E-2</v>
+        <v>4.1396883574591439E-2</v>
       </c>
       <c r="J12" t="s">
         <v>95</v>
@@ -2142,7 +2142,7 @@
         <v>105</v>
       </c>
       <c r="C13">
-        <v>2.1776719999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>95</v>
@@ -2154,7 +2154,7 @@
         <v>105</v>
       </c>
       <c r="I13">
-        <v>1.1027302924501286E-2</v>
+        <v>5.7188125975343321E-3</v>
       </c>
       <c r="J13" t="s">
         <v>95</v>
@@ -2168,7 +2168,7 @@
         <v>106</v>
       </c>
       <c r="C14">
-        <v>3.625229E-2</v>
+        <v>2.8831899999999999E-3</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -2180,7 +2180,7 @@
         <v>106</v>
       </c>
       <c r="I14">
-        <v>1.1826997569300394E-2</v>
+        <v>6.3792922521055265E-3</v>
       </c>
       <c r="J14" t="s">
         <v>95</v>
@@ -2194,7 +2194,7 @@
         <v>107</v>
       </c>
       <c r="C15">
-        <v>4.3965539999999997E-2</v>
+        <v>4.6609399999999997E-3</v>
       </c>
       <c r="D15" t="s">
         <v>95</v>
@@ -2206,7 +2206,7 @@
         <v>107</v>
       </c>
       <c r="I15">
-        <v>1.2378097006121405E-2</v>
+        <v>6.9000617624412229E-3</v>
       </c>
       <c r="J15" t="s">
         <v>95</v>
@@ -2220,7 +2220,7 @@
         <v>108</v>
       </c>
       <c r="C16">
-        <v>0.37751600000000002</v>
+        <v>4.7989230000000001E-2</v>
       </c>
       <c r="D16" t="s">
         <v>95</v>
@@ -2232,7 +2232,7 @@
         <v>108</v>
       </c>
       <c r="I16">
-        <v>0.11771605876014028</v>
+        <v>5.706583688338699E-2</v>
       </c>
       <c r="J16" t="s">
         <v>95</v>
@@ -2246,7 +2246,7 @@
         <v>109</v>
       </c>
       <c r="C17">
-        <v>3.4526719999999997E-2</v>
+        <v>3.10735E-3</v>
       </c>
       <c r="D17" t="s">
         <v>95</v>
@@ -2258,7 +2258,7 @@
         <v>109</v>
       </c>
       <c r="I17">
-        <v>1.1691046411124525E-2</v>
+        <v>6.4322109649529299E-3</v>
       </c>
       <c r="J17" t="s">
         <v>95</v>
@@ -2272,7 +2272,7 @@
         <v>110</v>
       </c>
       <c r="C18">
-        <v>2.228991E-2</v>
+        <v>2.9050000000000001E-5</v>
       </c>
       <c r="D18" t="s">
         <v>95</v>
@@ -2284,7 +2284,7 @@
         <v>110</v>
       </c>
       <c r="I18">
-        <v>1.121011238942698E-2</v>
+        <v>6.5149365542769852E-3</v>
       </c>
       <c r="J18" t="s">
         <v>95</v>
@@ -2298,7 +2298,7 @@
         <v>111</v>
       </c>
       <c r="C19">
-        <v>4.3419000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>95</v>
@@ -2310,7 +2310,7 @@
         <v>111</v>
       </c>
       <c r="I19">
-        <v>4.5567523939345392E-2</v>
+        <v>2.7057872087084014E-2</v>
       </c>
       <c r="J19" t="s">
         <v>95</v>
@@ -2324,7 +2324,7 @@
         <v>112</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>3.1587199999999998E-3</v>
       </c>
       <c r="D20" t="s">
         <v>95</v>
@@ -2336,7 +2336,7 @@
         <v>112</v>
       </c>
       <c r="I20">
-        <v>1.3334762445433577E-2</v>
+        <v>7.8546642925202359E-2</v>
       </c>
       <c r="J20" t="s">
         <v>95</v>
@@ -2350,7 +2350,7 @@
         <v>113</v>
       </c>
       <c r="C21">
-        <v>1.1604300000000001E-3</v>
+        <v>2.1776719999999999E-2</v>
       </c>
       <c r="D21" t="s">
         <v>95</v>
@@ -2362,7 +2362,7 @@
         <v>113</v>
       </c>
       <c r="I21">
-        <v>1.9110155105873099E-3</v>
+        <v>1.1027302924501286E-2</v>
       </c>
       <c r="J21" t="s">
         <v>95</v>
@@ -2376,7 +2376,7 @@
         <v>114</v>
       </c>
       <c r="C22">
-        <v>6.3854599999999999E-3</v>
+        <v>3.625229E-2</v>
       </c>
       <c r="D22" t="s">
         <v>95</v>
@@ -2388,7 +2388,7 @@
         <v>114</v>
       </c>
       <c r="I22">
-        <v>2.0911469594705359E-3</v>
+        <v>1.1826997569300394E-2</v>
       </c>
       <c r="J22" t="s">
         <v>95</v>
@@ -2402,7 +2402,7 @@
         <v>115</v>
       </c>
       <c r="C23">
-        <v>8.2340099999999999E-3</v>
+        <v>4.3965539999999997E-2</v>
       </c>
       <c r="D23" t="s">
         <v>95</v>
@@ -2414,7 +2414,7 @@
         <v>115</v>
       </c>
       <c r="I23">
-        <v>2.2526369060554556E-3</v>
+        <v>1.2378097006121405E-2</v>
       </c>
       <c r="J23" t="s">
         <v>95</v>
@@ -2428,7 +2428,7 @@
         <v>116</v>
       </c>
       <c r="C24">
-        <v>7.3607709999999993E-2</v>
+        <v>0.37751600000000002</v>
       </c>
       <c r="D24" t="s">
         <v>95</v>
@@ -2440,7 +2440,7 @@
         <v>116</v>
       </c>
       <c r="I24">
-        <v>2.1338466699538636E-2</v>
+        <v>0.11771605876014028</v>
       </c>
       <c r="J24" t="s">
         <v>95</v>
@@ -2454,7 +2454,7 @@
         <v>117</v>
       </c>
       <c r="C25">
-        <v>5.7424700000000004E-3</v>
+        <v>3.4526719999999997E-2</v>
       </c>
       <c r="D25" t="s">
         <v>95</v>
@@ -2466,7 +2466,7 @@
         <v>117</v>
       </c>
       <c r="I25">
-        <v>1.9564441473145294E-3</v>
+        <v>1.1691046411124525E-2</v>
       </c>
       <c r="J25" t="s">
         <v>95</v>
@@ -2480,7 +2480,7 @@
         <v>118</v>
       </c>
       <c r="C26">
-        <v>6.8303999999999999E-4</v>
+        <v>2.228991E-2</v>
       </c>
       <c r="D26" t="s">
         <v>95</v>
@@ -2492,7 +2492,7 @@
         <v>118</v>
       </c>
       <c r="I26">
-        <v>1.8820524881237449E-3</v>
+        <v>1.121011238942698E-2</v>
       </c>
       <c r="J26" t="s">
         <v>95</v>
@@ -2506,7 +2506,7 @@
         <v>119</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>4.3419000000000001E-3</v>
       </c>
       <c r="D27" t="s">
         <v>95</v>
@@ -2518,7 +2518,7 @@
         <v>119</v>
       </c>
       <c r="I27">
-        <v>7.9634921694619522E-3</v>
+        <v>4.5567523939345392E-2</v>
       </c>
       <c r="J27" t="s">
         <v>95</v>
@@ -2544,7 +2544,7 @@
         <v>120</v>
       </c>
       <c r="I28">
-        <v>1.227940793054211E-2</v>
+        <v>2.5614170375975687E-2</v>
       </c>
       <c r="J28" t="s">
         <v>95</v>
@@ -2558,7 +2558,7 @@
         <v>121</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1.1604300000000001E-3</v>
       </c>
       <c r="D29" t="s">
         <v>95</v>
@@ -2570,7 +2570,7 @@
         <v>121</v>
       </c>
       <c r="I29">
-        <v>1.6474401503685848E-3</v>
+        <v>3.5584556609558949E-3</v>
       </c>
       <c r="J29" t="s">
         <v>95</v>
@@ -2584,7 +2584,7 @@
         <v>122</v>
       </c>
       <c r="C30">
-        <v>3.0495299999999999E-3</v>
+        <v>9.4349900000000007E-3</v>
       </c>
       <c r="D30" t="s">
         <v>95</v>
@@ -2596,7 +2596,7 @@
         <v>122</v>
       </c>
       <c r="I30">
-        <v>1.853954241674148E-3</v>
+        <v>3.9451012011446837E-3</v>
       </c>
       <c r="J30" t="s">
         <v>95</v>
@@ -2610,7 +2610,7 @@
         <v>123</v>
       </c>
       <c r="C31">
-        <v>5.5271699999999997E-3</v>
+        <v>1.376118E-2</v>
       </c>
       <c r="D31" t="s">
         <v>95</v>
@@ -2622,7 +2622,7 @@
         <v>123</v>
       </c>
       <c r="I31">
-        <v>2.0034698300672392E-3</v>
+        <v>4.2561067361226949E-3</v>
       </c>
       <c r="J31" t="s">
         <v>95</v>
@@ -2636,7 +2636,7 @@
         <v>124</v>
       </c>
       <c r="C32">
-        <v>5.7140379999999998E-2</v>
+        <v>0.13074809000000001</v>
       </c>
       <c r="D32" t="s">
         <v>95</v>
@@ -2648,7 +2648,7 @@
         <v>124</v>
       </c>
       <c r="I32">
-        <v>1.6131566632199425E-2</v>
+        <v>3.747003333173806E-2</v>
       </c>
       <c r="J32" t="s">
         <v>95</v>
@@ -2662,7 +2662,7 @@
         <v>125</v>
       </c>
       <c r="C33">
-        <v>1.07004E-3</v>
+        <v>6.8125099999999999E-3</v>
       </c>
       <c r="D33" t="s">
         <v>95</v>
@@ -2674,7 +2674,7 @@
         <v>125</v>
       </c>
       <c r="I33">
-        <v>1.6023950836477905E-3</v>
+        <v>3.5588392309623199E-3</v>
       </c>
       <c r="J33" t="s">
         <v>95</v>
@@ -2688,7 +2688,7 @@
         <v>126</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>6.8303999999999999E-4</v>
       </c>
       <c r="D34" t="s">
         <v>95</v>
@@ -2700,7 +2700,7 @@
         <v>126</v>
       </c>
       <c r="I34">
-        <v>1.6372371882054134E-3</v>
+        <v>3.5192896763291586E-3</v>
       </c>
       <c r="J34" t="s">
         <v>95</v>
@@ -2726,7 +2726,7 @@
         <v>127</v>
       </c>
       <c r="I35">
-        <v>6.8828290081657251E-3</v>
+        <v>1.4846321177627677E-2</v>
       </c>
       <c r="J35" t="s">
         <v>95</v>
@@ -2949,7 +2949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F883114-9633-434C-8537-78AAD8EFD619}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3411420-3157-4806-A18A-0930A2B6128B}">
   <dimension ref="B2:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3001,10 +3001,10 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4">
-        <v>7.1917808219178078E-2</v>
+        <v>4.714611872146119E-2</v>
       </c>
       <c r="C4">
-        <v>2.8401660741366887E-2</v>
+        <v>1.861886648600718E-2</v>
       </c>
       <c r="D4" t="s">
         <v>94</v>
@@ -3019,7 +3019,7 @@
         <v>94</v>
       </c>
       <c r="J4">
-        <v>6.2152570044502725E-2</v>
+        <v>4.1328001177643389E-2</v>
       </c>
       <c r="M4" t="s">
         <v>13</v>
@@ -3028,15 +3028,15 @@
         <v>94</v>
       </c>
       <c r="O4">
-        <v>0.30908619689709971</v>
+        <v>0.29524362667493453</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>1.0273972602739725E-2</v>
+        <v>6.735159817351598E-3</v>
       </c>
       <c r="C5">
-        <v>1.7154364418367599E-2</v>
+        <v>1.124563889648543E-2</v>
       </c>
       <c r="D5" t="s">
         <v>97</v>
@@ -3051,7 +3051,7 @@
         <v>97</v>
       </c>
       <c r="J5">
-        <v>1.2009716442996836E-2</v>
+        <v>8.0851488420039929E-3</v>
       </c>
       <c r="M5" t="s">
         <v>13</v>
@@ -3060,15 +3060,15 @@
         <v>97</v>
       </c>
       <c r="O5">
-        <v>7.0029297758477993E-2</v>
+        <v>4.7126123672023956E-2</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6">
-        <v>1.0273972602739725E-2</v>
+        <v>6.735159817351598E-3</v>
       </c>
       <c r="C6">
-        <v>1.3126817989707386E-2</v>
+        <v>8.6053584599192871E-3</v>
       </c>
       <c r="D6" t="s">
         <v>98</v>
@@ -3083,7 +3083,7 @@
         <v>98</v>
       </c>
       <c r="J6">
-        <v>1.2485772756376091E-2</v>
+        <v>8.3943858858496045E-3</v>
       </c>
       <c r="M6" t="s">
         <v>13</v>
@@ -3092,15 +3092,15 @@
         <v>98</v>
       </c>
       <c r="O6">
-        <v>6.9367869595493348E-2</v>
+        <v>4.7484009459135335E-2</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7">
-        <v>1.0273972602739725E-2</v>
+        <v>6.735159817351598E-3</v>
       </c>
       <c r="C7">
-        <v>1.3007483280710046E-2</v>
+        <v>8.5271279284654736E-3</v>
       </c>
       <c r="D7" t="s">
         <v>99</v>
@@ -3115,7 +3115,7 @@
         <v>99</v>
       </c>
       <c r="J7">
-        <v>1.2692316263399403E-2</v>
+        <v>8.5234446018451013E-3</v>
       </c>
       <c r="M7" t="s">
         <v>13</v>
@@ -3124,15 +3124,15 @@
         <v>99</v>
       </c>
       <c r="O7">
-        <v>6.6074620471634482E-2</v>
+        <v>4.5197330291383508E-2</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8">
-        <v>8.2191780821917804E-2</v>
+        <v>5.3881278538812784E-2</v>
       </c>
       <c r="C8">
-        <v>0.12058772344181191</v>
+        <v>7.9051952034076695E-2</v>
       </c>
       <c r="D8" t="s">
         <v>100</v>
@@ -3147,7 +3147,7 @@
         <v>100</v>
       </c>
       <c r="J8">
-        <v>0.1004188360161762</v>
+        <v>6.7674261844725359E-2</v>
       </c>
       <c r="M8" t="s">
         <v>13</v>
@@ -3156,15 +3156,15 @@
         <v>100</v>
       </c>
       <c r="O8">
-        <v>0.10517912162373078</v>
+        <v>8.0389650494098852E-2</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9">
-        <v>1.0273972602739725E-2</v>
+        <v>6.735159817351598E-3</v>
       </c>
       <c r="C9">
-        <v>1.5513512169654176E-2</v>
+        <v>1.016996908899552E-2</v>
       </c>
       <c r="D9" t="s">
         <v>101</v>
@@ -3179,7 +3179,7 @@
         <v>101</v>
       </c>
       <c r="J9">
-        <v>1.3084579967321482E-2</v>
+        <v>8.8413511413772579E-3</v>
       </c>
       <c r="M9" t="s">
         <v>13</v>
@@ -3188,15 +3188,15 @@
         <v>101</v>
       </c>
       <c r="O9">
-        <v>6.6754614754251707E-2</v>
+        <v>4.0331772644039976E-2</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10">
-        <v>1.0273972602739725E-2</v>
+        <v>6.735159817351598E-3</v>
       </c>
       <c r="C10">
-        <v>1.4021828307187432E-2</v>
+        <v>9.1920874458228732E-3</v>
       </c>
       <c r="D10" t="s">
         <v>102</v>
@@ -3211,7 +3211,7 @@
         <v>102</v>
       </c>
       <c r="J10">
-        <v>1.2731469793507368E-2</v>
+        <v>8.5385270462681635E-3</v>
       </c>
       <c r="M10" t="s">
         <v>13</v>
@@ -3220,15 +3220,15 @@
         <v>102</v>
       </c>
       <c r="O10">
-        <v>5.023811114210841E-2</v>
+        <v>3.0789916534887052E-2</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11">
-        <v>4.1095890410958902E-2</v>
+        <v>2.6940639269406392E-2</v>
       </c>
       <c r="C11">
-        <v>2.4761952116948018E-2</v>
+        <v>1.623283527666592E-2</v>
       </c>
       <c r="D11" t="s">
         <v>103</v>
@@ -3243,7 +3243,7 @@
         <v>103</v>
       </c>
       <c r="J11">
-        <v>4.2876381964629673E-2</v>
+        <v>2.8553373673719802E-2</v>
       </c>
       <c r="M11" t="s">
         <v>13</v>
@@ -3252,15 +3252,15 @@
         <v>103</v>
       </c>
       <c r="O11">
-        <v>0.12357469288025147</v>
+        <v>0.109785485062313</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12">
-        <v>0.12226027397260274</v>
+        <v>2.4771689497716895E-2</v>
       </c>
       <c r="C12">
-        <v>4.8282823260323703E-2</v>
+        <v>9.7827942553597048E-3</v>
       </c>
       <c r="D12" t="s">
         <v>104</v>
@@ -3275,7 +3275,7 @@
         <v>104</v>
       </c>
       <c r="J12">
-        <v>9.5989883126765013E-2</v>
+        <v>2.0824568866859339E-2</v>
       </c>
       <c r="M12" t="s">
         <v>13</v>
@@ -3284,15 +3284,15 @@
         <v>104</v>
       </c>
       <c r="O12">
-        <v>0.25253238420196467</v>
+        <v>0.27884032566239036</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13">
-        <v>1.7465753424657535E-2</v>
+        <v>3.5388127853881279E-3</v>
       </c>
       <c r="C13">
-        <v>2.9162419511224922E-2</v>
+        <v>5.9087255218821738E-3</v>
       </c>
       <c r="D13" t="s">
         <v>105</v>
@@ -3307,7 +3307,7 @@
         <v>105</v>
       </c>
       <c r="J13">
-        <v>1.7287412494072642E-2</v>
+        <v>3.9245676009928418E-3</v>
       </c>
       <c r="M13" t="s">
         <v>13</v>
@@ -3316,15 +3316,15 @@
         <v>105</v>
       </c>
       <c r="O13">
-        <v>0.13629202385605721</v>
+        <v>9.6611285097571775E-2</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14">
-        <v>1.7465753424657535E-2</v>
+        <v>3.5388127853881279E-3</v>
       </c>
       <c r="C14">
-        <v>2.231559058250256E-2</v>
+        <v>4.521459529788099E-3</v>
       </c>
       <c r="D14" t="s">
         <v>106</v>
@@ -3339,7 +3339,7 @@
         <v>106</v>
       </c>
       <c r="J14">
-        <v>1.8394168048003832E-2</v>
+        <v>4.0913868705264866E-3</v>
       </c>
       <c r="M14" t="s">
         <v>13</v>
@@ -3348,15 +3348,15 @@
         <v>106</v>
       </c>
       <c r="O14">
-        <v>0.11899322776779986</v>
+        <v>9.6080459952263109E-2</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15">
-        <v>1.7465753424657535E-2</v>
+        <v>3.5388127853881279E-3</v>
       </c>
       <c r="C15">
-        <v>2.2112721577207076E-2</v>
+        <v>4.4803553522445696E-3</v>
       </c>
       <c r="D15" t="s">
         <v>107</v>
@@ -3371,7 +3371,7 @@
         <v>107</v>
       </c>
       <c r="J15">
-        <v>1.8615088124530728E-2</v>
+        <v>4.1688716615543011E-3</v>
       </c>
       <c r="M15" t="s">
         <v>13</v>
@@ -3380,15 +3380,15 @@
         <v>107</v>
       </c>
       <c r="O15">
-        <v>0.1189849959340632</v>
+        <v>8.2359576109102495E-2</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16">
-        <v>0.13972602739726028</v>
+        <v>2.8310502283105023E-2</v>
       </c>
       <c r="C16">
-        <v>0.20499912985108024</v>
+        <v>4.1535771407735213E-2</v>
       </c>
       <c r="D16" t="s">
         <v>108</v>
@@ -3403,7 +3403,7 @@
         <v>108</v>
       </c>
       <c r="J16">
-        <v>0.14928254098555391</v>
+        <v>3.2744574171450817E-2</v>
       </c>
       <c r="M16" t="s">
         <v>13</v>
@@ -3412,15 +3412,15 @@
         <v>108</v>
       </c>
       <c r="O16">
-        <v>0.14153455122880731</v>
+        <v>0.1140433443048483</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B17">
-        <v>1.7465753424657535E-2</v>
+        <v>3.5388127853881279E-3</v>
       </c>
       <c r="C17">
-        <v>2.6372970688412108E-2</v>
+        <v>5.3435430806586613E-3</v>
       </c>
       <c r="D17" t="s">
         <v>109</v>
@@ -3435,7 +3435,7 @@
         <v>109</v>
       </c>
       <c r="J17">
-        <v>1.8568766960267023E-2</v>
+        <v>4.2432288259442244E-3</v>
       </c>
       <c r="M17" t="s">
         <v>13</v>
@@ -3444,15 +3444,15 @@
         <v>109</v>
       </c>
       <c r="O17">
-        <v>0.10810752915343902</v>
+        <v>8.3961008243862656E-2</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18">
-        <v>1.7465753424657535E-2</v>
+        <v>3.5388127853881279E-3</v>
       </c>
       <c r="C18">
-        <v>2.3837108122218637E-2</v>
+        <v>4.8297408613645603E-3</v>
       </c>
       <c r="D18" t="s">
         <v>110</v>
@@ -3467,7 +3467,7 @@
         <v>110</v>
       </c>
       <c r="J18">
-        <v>1.8425380485267689E-2</v>
+        <v>4.1929427472392035E-3</v>
       </c>
       <c r="M18" t="s">
         <v>13</v>
@@ -3476,15 +3476,15 @@
         <v>110</v>
       </c>
       <c r="O18">
-        <v>0.10965799619002992</v>
+        <v>6.7301470387042484E-2</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19">
-        <v>6.9863013698630141E-2</v>
+        <v>1.4155251141552512E-2</v>
       </c>
       <c r="C19">
-        <v>4.2095318598811632E-2</v>
+        <v>8.5291168402820937E-3</v>
       </c>
       <c r="D19" t="s">
         <v>111</v>
@@ -3499,7 +3499,7 @@
         <v>111</v>
       </c>
       <c r="J19">
-        <v>6.5542910736804488E-2</v>
+        <v>1.4323008290909871E-2</v>
       </c>
       <c r="M19" t="s">
         <v>13</v>
@@ -3508,15 +3508,15 @@
         <v>111</v>
       </c>
       <c r="O19">
-        <v>0.23835346524352574</v>
+        <v>0.12565838407205621</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B20">
-        <v>2.3972602739726026E-2</v>
+        <v>0.12226027397260274</v>
       </c>
       <c r="C20">
-        <v>9.4672202471222967E-3</v>
+        <v>4.8282823260323703E-2</v>
       </c>
       <c r="D20" t="s">
         <v>112</v>
@@ -3531,7 +3531,7 @@
         <v>112</v>
       </c>
       <c r="J20">
-        <v>1.8399645640503087E-2</v>
+        <v>9.5989883126765013E-2</v>
       </c>
       <c r="M20" t="s">
         <v>13</v>
@@ -3540,15 +3540,15 @@
         <v>112</v>
       </c>
       <c r="O20">
-        <v>0.19659728118625064</v>
+        <v>0.25253238420196467</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B21">
-        <v>3.4246575342465752E-3</v>
+        <v>1.7465753424657535E-2</v>
       </c>
       <c r="C21">
-        <v>5.7181214727892006E-3</v>
+        <v>2.9162419511224922E-2</v>
       </c>
       <c r="D21" t="s">
         <v>113</v>
@@ -3563,7 +3563,7 @@
         <v>113</v>
       </c>
       <c r="J21">
-        <v>3.293789680502405E-3</v>
+        <v>1.7287412494072642E-2</v>
       </c>
       <c r="M21" t="s">
         <v>13</v>
@@ -3572,15 +3572,15 @@
         <v>113</v>
       </c>
       <c r="O21">
-        <v>8.0067961524600051E-2</v>
+        <v>0.13629202385605721</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B22">
-        <v>3.4246575342465752E-3</v>
+        <v>1.7465753424657535E-2</v>
       </c>
       <c r="C22">
-        <v>4.3756059965691279E-3</v>
+        <v>2.231559058250256E-2</v>
       </c>
       <c r="D22" t="s">
         <v>114</v>
@@ -3595,7 +3595,7 @@
         <v>114</v>
       </c>
       <c r="J22">
-        <v>3.5037198852776721E-3</v>
+        <v>1.8394168048003832E-2</v>
       </c>
       <c r="M22" t="s">
         <v>13</v>
@@ -3604,15 +3604,15 @@
         <v>114</v>
       </c>
       <c r="O22">
-        <v>6.7764737848116319E-2</v>
+        <v>0.11899322776779986</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B23">
-        <v>3.4246575342465752E-3</v>
+        <v>1.7465753424657535E-2</v>
       </c>
       <c r="C23">
-        <v>4.3358277602366805E-3</v>
+        <v>2.2112721577207076E-2</v>
       </c>
       <c r="D23" t="s">
         <v>115</v>
@@ -3627,7 +3627,7 @@
         <v>115</v>
       </c>
       <c r="J23">
-        <v>3.5387808427142053E-3</v>
+        <v>1.8615088124530728E-2</v>
       </c>
       <c r="M23" t="s">
         <v>13</v>
@@ -3636,15 +3636,15 @@
         <v>115</v>
       </c>
       <c r="O23">
-        <v>6.6501641578815995E-2</v>
+        <v>0.1189849959340632</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B24">
-        <v>2.7397260273972601E-2</v>
+        <v>0.13972602739726028</v>
       </c>
       <c r="C24">
-        <v>4.0195907813937302E-2</v>
+        <v>0.20499912985108024</v>
       </c>
       <c r="D24" t="s">
         <v>116</v>
@@ -3659,7 +3659,7 @@
         <v>116</v>
       </c>
       <c r="J24">
-        <v>2.8449998711808439E-2</v>
+        <v>0.14928254098555391</v>
       </c>
       <c r="M24" t="s">
         <v>13</v>
@@ -3668,15 +3668,15 @@
         <v>116</v>
       </c>
       <c r="O24">
-        <v>8.616857035957004E-2</v>
+        <v>0.14153455122880731</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B25">
-        <v>3.4246575342465752E-3</v>
+        <v>1.7465753424657535E-2</v>
       </c>
       <c r="C25">
-        <v>5.1711707232180593E-3</v>
+        <v>2.6372970688412108E-2</v>
       </c>
       <c r="D25" t="s">
         <v>117</v>
@@ -3691,7 +3691,7 @@
         <v>117</v>
       </c>
       <c r="J25">
-        <v>3.54119133047114E-3</v>
+        <v>1.8568766960267023E-2</v>
       </c>
       <c r="M25" t="s">
         <v>13</v>
@@ -3700,15 +3700,15 @@
         <v>117</v>
       </c>
       <c r="O25">
-        <v>6.1646784411448108E-2</v>
+        <v>0.10810752915343902</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B26">
-        <v>3.4246575342465752E-3</v>
+        <v>1.7465753424657535E-2</v>
       </c>
       <c r="C26">
-        <v>4.6739427690624773E-3</v>
+        <v>2.3837108122218637E-2</v>
       </c>
       <c r="D26" t="s">
         <v>118</v>
@@ -3723,7 +3723,7 @@
         <v>118</v>
       </c>
       <c r="J26">
-        <v>3.5165007269047826E-3</v>
+        <v>1.8425380485267689E-2</v>
       </c>
       <c r="M26" t="s">
         <v>13</v>
@@ -3732,15 +3732,15 @@
         <v>118</v>
       </c>
       <c r="O26">
-        <v>5.7035544013998463E-2</v>
+        <v>0.10965799619002992</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B27">
-        <v>1.3698630136986301E-2</v>
+        <v>6.9863013698630141E-2</v>
       </c>
       <c r="C27">
-        <v>8.2539840389826719E-3</v>
+        <v>4.2095318598811632E-2</v>
       </c>
       <c r="D27" t="s">
         <v>119</v>
@@ -3755,7 +3755,7 @@
         <v>119</v>
       </c>
       <c r="J27">
-        <v>1.2510367224708519E-2</v>
+        <v>6.5542910736804488E-2</v>
       </c>
       <c r="M27" t="s">
         <v>13</v>
@@ -3764,15 +3764,15 @@
         <v>119</v>
       </c>
       <c r="O27">
-        <v>0.1513291134774295</v>
+        <v>0.23835346524352574</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B28">
-        <v>2.4771689497716895E-2</v>
+        <v>4.8744292237442921E-2</v>
       </c>
       <c r="C28">
-        <v>9.7827942553597048E-3</v>
+        <v>1.9250014502482003E-2</v>
       </c>
       <c r="D28" t="s">
         <v>120</v>
@@ -3787,7 +3787,7 @@
         <v>120</v>
       </c>
       <c r="J28">
-        <v>1.8812781224779137E-2</v>
+        <v>3.7212426865282221E-2</v>
       </c>
       <c r="M28" t="s">
         <v>13</v>
@@ -3796,15 +3796,15 @@
         <v>120</v>
       </c>
       <c r="O28">
-        <v>0.20562365457835541</v>
+        <v>0.20134789143260856</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B29">
-        <v>3.5388127853881279E-3</v>
+        <v>6.9634703196347035E-3</v>
       </c>
       <c r="C29">
-        <v>5.9087255218821738E-3</v>
+        <v>1.1626846994671376E-2</v>
       </c>
       <c r="D29" t="s">
         <v>121</v>
@@ -3819,7 +3819,7 @@
         <v>121</v>
       </c>
       <c r="J29">
-        <v>3.3961039629638438E-3</v>
+        <v>6.6898936434662487E-3</v>
       </c>
       <c r="M29" t="s">
         <v>13</v>
@@ -3828,15 +3828,15 @@
         <v>121</v>
       </c>
       <c r="O29">
-        <v>8.6623624959287326E-2</v>
+        <v>8.5757665349928569E-2</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B30">
-        <v>3.5388127853881279E-3</v>
+        <v>6.9634703196347035E-3</v>
       </c>
       <c r="C30">
-        <v>4.521459529788099E-3</v>
+        <v>8.8970655263572278E-3</v>
       </c>
       <c r="D30" t="s">
         <v>122</v>
@@ -3851,7 +3851,7 @@
         <v>122</v>
       </c>
       <c r="J30">
-        <v>3.6092106048767536E-3</v>
+        <v>7.1129304901544257E-3</v>
       </c>
       <c r="M30" t="s">
         <v>13</v>
@@ -3860,15 +3860,15 @@
         <v>122</v>
       </c>
       <c r="O30">
-        <v>6.6028529342583964E-2</v>
+        <v>6.9062180476435531E-2</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B31">
-        <v>3.5388127853881279E-3</v>
+        <v>6.9634703196347035E-3</v>
       </c>
       <c r="C31">
-        <v>4.4803553522445696E-3</v>
+        <v>8.8161831124812517E-3</v>
       </c>
       <c r="D31" t="s">
         <v>123</v>
@@ -3883,7 +3883,7 @@
         <v>123</v>
       </c>
       <c r="J31">
-        <v>3.6518409444285206E-3</v>
+        <v>7.1906217871427255E-3</v>
       </c>
       <c r="M31" t="s">
         <v>13</v>
@@ -3892,15 +3892,15 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>4.5602597788904742E-2</v>
+        <v>6.7023222881490874E-2</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B32">
-        <v>2.8310502283105023E-2</v>
+        <v>5.5707762557077628E-2</v>
       </c>
       <c r="C32">
-        <v>4.1535771407735213E-2</v>
+        <v>8.1731679221672515E-2</v>
       </c>
       <c r="D32" t="s">
         <v>124</v>
@@ -3915,7 +3915,7 @@
         <v>124</v>
       </c>
       <c r="J32">
-        <v>2.9031012343673016E-2</v>
+        <v>5.7481011055481458E-2</v>
       </c>
       <c r="M32" t="s">
         <v>13</v>
@@ -3924,15 +3924,15 @@
         <v>124</v>
       </c>
       <c r="O32">
-        <v>4.8339120640704225E-2</v>
+        <v>9.1683107910291328E-2</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B33">
-        <v>3.5388127853881279E-3</v>
+        <v>6.9634703196347035E-3</v>
       </c>
       <c r="C33">
-        <v>5.3435430806586613E-3</v>
+        <v>1.0514713803876726E-2</v>
       </c>
       <c r="D33" t="s">
         <v>125</v>
@@ -3947,7 +3947,7 @@
         <v>125</v>
       </c>
       <c r="J33">
-        <v>3.6598308477723781E-3</v>
+        <v>7.2010221782435177E-3</v>
       </c>
       <c r="M33" t="s">
         <v>13</v>
@@ -3956,15 +3956,15 @@
         <v>125</v>
       </c>
       <c r="O33">
-        <v>4.8932354988667104E-2</v>
+        <v>6.1513546915225481E-2</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B34">
-        <v>3.5388127853881279E-3</v>
+        <v>6.9634703196347035E-3</v>
       </c>
       <c r="C34">
-        <v>4.8297408613645603E-3</v>
+        <v>9.503683630427041E-3</v>
       </c>
       <c r="D34" t="s">
         <v>126</v>
@@ -3979,7 +3979,7 @@
         <v>126</v>
       </c>
       <c r="J34">
-        <v>3.6504892690508001E-3</v>
+        <v>7.1669899959555831E-3</v>
       </c>
       <c r="M34" t="s">
         <v>13</v>
@@ -3988,15 +3988,15 @@
         <v>126</v>
       </c>
       <c r="O34">
-        <v>5.1191834035870798E-2</v>
+        <v>5.4986443284197106E-2</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B35">
-        <v>1.4155251141552512E-2</v>
+        <v>2.7853881278538814E-2</v>
       </c>
       <c r="C35">
-        <v>8.5291168402820937E-3</v>
+        <v>1.6783100879264767E-2</v>
       </c>
       <c r="D35" t="s">
         <v>127</v>
@@ -4011,7 +4011,7 @@
         <v>127</v>
       </c>
       <c r="J35">
-        <v>1.2860939115238251E-2</v>
+        <v>2.5371306339946768E-2</v>
       </c>
       <c r="M35" t="s">
         <v>13</v>
@@ -4020,7 +4020,7 @@
         <v>127</v>
       </c>
       <c r="O35">
-        <v>0.15790657199061053</v>
+        <v>0.15568071991556032</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.45">
@@ -4287,7 +4287,7 @@
         <v>94</v>
       </c>
       <c r="J44">
-        <v>7.0676867845529692E-2</v>
+        <v>4.6296111212786775E-2</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.45">
@@ -4298,7 +4298,7 @@
         <v>97</v>
       </c>
       <c r="J45">
-        <v>1.0347019651104253E-2</v>
+        <v>6.7881259361066183E-3</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.45">
@@ -4309,7 +4309,7 @@
         <v>98</v>
       </c>
       <c r="J46">
-        <v>1.0385083174664302E-2</v>
+        <v>6.8128512704278962E-3</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.45">
@@ -4320,7 +4320,7 @@
         <v>99</v>
       </c>
       <c r="J47">
-        <v>1.0401597552112528E-2</v>
+        <v>6.8231702796267323E-3</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.45">
@@ -4331,7 +4331,7 @@
         <v>100</v>
       </c>
       <c r="J48">
-        <v>8.3123254238555877E-2</v>
+        <v>5.4544321262162562E-2</v>
       </c>
     </row>
     <row r="49" spans="8:10" x14ac:dyDescent="0.45">
@@ -4342,7 +4342,7 @@
         <v>101</v>
       </c>
       <c r="J49">
-        <v>1.0432961359957034E-2</v>
+        <v>6.8485887915071438E-3</v>
       </c>
     </row>
     <row r="50" spans="8:10" x14ac:dyDescent="0.45">
@@ -4353,7 +4353,7 @@
         <v>102</v>
       </c>
       <c r="J50">
-        <v>1.0404728108884572E-2</v>
+        <v>6.8243762104431196E-3</v>
       </c>
     </row>
     <row r="51" spans="8:10" x14ac:dyDescent="0.45">
@@ -4364,7 +4364,7 @@
         <v>103</v>
       </c>
       <c r="J51">
-        <v>4.0975307429017886E-2</v>
+        <v>2.6849692925335147E-2</v>
       </c>
     </row>
     <row r="52" spans="8:10" x14ac:dyDescent="0.45">
@@ -4375,7 +4375,7 @@
         <v>104</v>
       </c>
       <c r="J52">
-        <v>0.12051889590551515</v>
+        <v>2.4380756632742924E-2</v>
       </c>
     </row>
     <row r="53" spans="8:10" x14ac:dyDescent="0.45">
@@ -4386,7 +4386,7 @@
         <v>105</v>
       </c>
       <c r="J53">
-        <v>1.7502793348931428E-2</v>
+        <v>3.5588937149976336E-3</v>
       </c>
     </row>
     <row r="54" spans="8:10" x14ac:dyDescent="0.45">
@@ -4397,7 +4397,7 @@
         <v>106</v>
       </c>
       <c r="J54">
-        <v>1.7591285014556528E-2</v>
+        <v>3.572231904236404E-3</v>
       </c>
     </row>
     <row r="55" spans="8:10" x14ac:dyDescent="0.45">
@@ -4408,7 +4408,7 @@
         <v>107</v>
       </c>
       <c r="J55">
-        <v>1.7608948883938026E-2</v>
+        <v>3.5784272724857964E-3</v>
       </c>
     </row>
     <row r="56" spans="8:10" x14ac:dyDescent="0.45">
@@ -4419,7 +4419,7 @@
         <v>108</v>
       </c>
       <c r="J56">
-        <v>0.14090052200323819</v>
+        <v>2.8578932976393311E-2</v>
       </c>
     </row>
     <row r="57" spans="8:10" x14ac:dyDescent="0.45">
@@ -4430,7 +4430,7 @@
         <v>109</v>
       </c>
       <c r="J57">
-        <v>1.7605245232336884E-2</v>
+        <v>3.5843725684498889E-3</v>
       </c>
     </row>
     <row r="58" spans="8:10" x14ac:dyDescent="0.45">
@@ -4441,7 +4441,7 @@
         <v>110</v>
       </c>
       <c r="J58">
-        <v>1.7593780633893507E-2</v>
+        <v>3.5803518984414517E-3</v>
       </c>
     </row>
     <row r="59" spans="8:10" x14ac:dyDescent="0.45">
@@ -4452,7 +4452,7 @@
         <v>111</v>
       </c>
       <c r="J59">
-        <v>6.972279321850966E-2</v>
+        <v>1.4125614503682739E-2</v>
       </c>
     </row>
     <row r="60" spans="8:10" x14ac:dyDescent="0.45">
@@ -4463,7 +4463,7 @@
         <v>112</v>
       </c>
       <c r="J60">
-        <v>2.3641391590636062E-2</v>
+        <v>0.12051889590551515</v>
       </c>
     </row>
     <row r="61" spans="8:10" x14ac:dyDescent="0.45">
@@ -4474,7 +4474,7 @@
         <v>113</v>
       </c>
       <c r="J61">
-        <v>3.4305338449954997E-3</v>
+        <v>1.7502793348931428E-2</v>
       </c>
     </row>
     <row r="62" spans="8:10" x14ac:dyDescent="0.45">
@@ -4485,7 +4485,7 @@
         <v>114</v>
       </c>
       <c r="J62">
-        <v>3.4473190089999591E-3</v>
+        <v>1.7591285014556528E-2</v>
       </c>
     </row>
     <row r="63" spans="8:10" x14ac:dyDescent="0.45">
@@ -4496,7 +4496,7 @@
         <v>115</v>
       </c>
       <c r="J63">
-        <v>3.4501223403326539E-3</v>
+        <v>1.7608948883938026E-2</v>
       </c>
     </row>
     <row r="64" spans="8:10" x14ac:dyDescent="0.45">
@@ -4507,7 +4507,7 @@
         <v>116</v>
       </c>
       <c r="J64">
-        <v>2.7612152720897926E-2</v>
+        <v>0.14090052200323819</v>
       </c>
     </row>
     <row r="65" spans="8:10" x14ac:dyDescent="0.45">
@@ -4518,7 +4518,7 @@
         <v>117</v>
       </c>
       <c r="J65">
-        <v>3.450315073114362E-3</v>
+        <v>1.7605245232336884E-2</v>
       </c>
     </row>
     <row r="66" spans="8:10" x14ac:dyDescent="0.45">
@@ -4529,7 +4529,7 @@
         <v>118</v>
       </c>
       <c r="J66">
-        <v>3.4483409130325669E-3</v>
+        <v>1.7593780633893507E-2</v>
       </c>
     </row>
     <row r="67" spans="8:10" x14ac:dyDescent="0.45">
@@ -4540,7 +4540,7 @@
         <v>119</v>
       </c>
       <c r="J67">
-        <v>1.3668981359945126E-2</v>
+        <v>6.972279321850966E-2</v>
       </c>
     </row>
     <row r="68" spans="8:10" x14ac:dyDescent="0.45">
@@ -4551,7 +4551,7 @@
         <v>120</v>
       </c>
       <c r="J68">
-        <v>2.4426899153513471E-2</v>
+        <v>4.8068290744149533E-2</v>
       </c>
     </row>
     <row r="69" spans="8:10" x14ac:dyDescent="0.45">
@@ -4562,7 +4562,7 @@
         <v>121</v>
       </c>
       <c r="J69">
-        <v>3.5462108960209624E-3</v>
+        <v>6.9767447410164617E-3</v>
       </c>
     </row>
     <row r="70" spans="8:10" x14ac:dyDescent="0.45">
@@ -4573,7 +4573,7 @@
         <v>122</v>
       </c>
       <c r="J70">
-        <v>3.5632500349994482E-3</v>
+        <v>7.0105690439994078E-3</v>
       </c>
     </row>
     <row r="71" spans="8:10" x14ac:dyDescent="0.45">
@@ -4584,7 +4584,7 @@
         <v>123</v>
       </c>
       <c r="J71">
-        <v>3.5666585832915261E-3</v>
+        <v>7.01678092362418E-3</v>
       </c>
     </row>
     <row r="72" spans="8:10" x14ac:dyDescent="0.45">
@@ -4595,7 +4595,7 @@
         <v>124</v>
       </c>
       <c r="J72">
-        <v>2.851857954638053E-2</v>
+        <v>5.6130732267278459E-2</v>
       </c>
     </row>
     <row r="73" spans="8:10" x14ac:dyDescent="0.45">
@@ -4606,7 +4606,7 @@
         <v>125</v>
       </c>
       <c r="J73">
-        <v>3.5672974234153185E-3</v>
+        <v>7.0176124965296805E-3</v>
       </c>
     </row>
     <row r="74" spans="8:10" x14ac:dyDescent="0.45">
@@ -4617,7 +4617,7 @@
         <v>126</v>
       </c>
       <c r="J74">
-        <v>3.5665505088344936E-3</v>
+        <v>7.01489142186706E-3</v>
       </c>
     </row>
     <row r="75" spans="8:10" x14ac:dyDescent="0.45">
@@ -4628,7 +4628,7 @@
         <v>127</v>
       </c>
       <c r="J75">
-        <v>1.4126997331370813E-2</v>
+        <v>2.7795978691315941E-2</v>
       </c>
     </row>
     <row r="76" spans="8:10" x14ac:dyDescent="0.45">

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3922FA5-9C38-4CC6-A172-B8DFAF6F219F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31188D7D-D3B2-4889-AC08-C023E15DD10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -465,10 +465,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH3,S1aH3,S4aH2,S4aH5,S1aH4,S2aH2,S3aH5,S5aH3,S1aH2,S2aH3,S3aH4,S4aH3,S4aH4,S3aH2,S5aH4,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5</t>
-  </si>
-  <si>
-    <t>S4aH6,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4aH8,S2aH1,S3aH7,S5aH8,S2aH6,S3aH1,S1aH1,S2aH7,S4aH1,S1aH8,S5aH1,S3aH8,S2aH8,S1aH6</t>
+    <t>S1aH4,S2aH2,S3aH5,S5aH3,S3aH2,S1aH2,S2aH3,S1aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S4aH2,S5aH4,S4aH5,S3aH4,S4aH3,S4aH4,S3aH3</t>
+  </si>
+  <si>
+    <t>S4aH1,S1aH8,S5aH1,S4aH8,S3aH8,S1aH1,S2aH7,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1aH6,S2aH1,S3aH7,S5aH8,S2aH8,S4aH6,S2aH6,S3aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4aH6,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4aH8,S2aH1,S3aH7,S5aH8,S2aH6,S3aH1,S1aH1,S2aH7,S4aH1,S1aH8,S5aH1,S3aH8,S2aH8,S1aH6</v>
+        <v>S4aH1,S1aH8,S5aH1,S4aH8,S3aH8,S1aH1,S2aH7,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1aH6,S2aH1,S3aH7,S5aH8,S2aH8,S4aH6,S2aH6,S3aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH3,S1aH3,S4aH2,S4aH5,S1aH4,S2aH2,S3aH5,S5aH3,S1aH2,S2aH3,S3aH4,S4aH3,S4aH4,S3aH2,S5aH4,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5</v>
+        <v>S1aH4,S2aH2,S3aH5,S5aH3,S3aH2,S1aH2,S2aH3,S1aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S4aH2,S5aH4,S4aH5,S3aH4,S4aH3,S4aH4,S3aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1685,7 +1685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A34010-FC99-434D-A41F-667557E0D2B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A14E61C-7D96-4DD4-935A-5FCB2D719367}">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1805,7 +1805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C833C6-50A7-4DC6-B235-E9482D4B8083}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B7A371-B338-428D-8FD2-E1A5E3C4A906}">
   <dimension ref="B2:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1884,10 +1884,10 @@
         <v>137</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N4">
-        <v>0.63189495603887091</v>
+        <v>0.18220731142989358</v>
       </c>
       <c r="O4" t="s">
         <v>148</v>
@@ -1919,10 +1919,10 @@
         <v>137</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>0.16266774641369736</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O5" t="s">
         <v>148</v>
@@ -1954,10 +1954,10 @@
         <v>137</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="N6">
-        <v>7.5520592318371119E-2</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O6" t="s">
         <v>148</v>
@@ -1989,10 +1989,10 @@
         <v>137</v>
       </c>
       <c r="M7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N7">
-        <v>0.18220731142989358</v>
+        <v>0.63189495603887091</v>
       </c>
       <c r="O7" t="s">
         <v>148</v>
@@ -2949,7 +2949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBB9EB6-8663-429E-ACE5-9C7F4BE5CE07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC01D025-FC18-4642-875D-E2BD798966AE}">
   <dimension ref="B2:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31188D7D-D3B2-4889-AC08-C023E15DD10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4755EB-5DB7-4CDF-814B-691D00ECC2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -465,10 +465,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH4,S2aH2,S3aH5,S5aH3,S3aH2,S1aH2,S2aH3,S1aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S4aH2,S5aH4,S4aH5,S3aH4,S4aH3,S4aH4,S3aH3</t>
-  </si>
-  <si>
-    <t>S4aH1,S1aH8,S5aH1,S4aH8,S3aH8,S1aH1,S2aH7,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1aH6,S2aH1,S3aH7,S5aH8,S2aH8,S4aH6,S2aH6,S3aH1</t>
+    <t>S3aH3,S3aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S3aH4,S4aH3,S4aH4,S3aH5,S5aH3,S1aH3,S5aH4,S1aH4,S2aH2,S1aH2,S2aH3,S4aH2,S4aH5</t>
+  </si>
+  <si>
+    <t>S4aH6,S2aH8,S2aH6,S3aH1,S1aH1,S2aH7,S3aH8,S1aH6,S1aH8,S5aH1,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4aH1,S2aH1,S3aH7,S5aH8,S4aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4aH1,S1aH8,S5aH1,S4aH8,S3aH8,S1aH1,S2aH7,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1aH6,S2aH1,S3aH7,S5aH8,S2aH8,S4aH6,S2aH6,S3aH1</v>
+        <v>S4aH6,S2aH8,S2aH6,S3aH1,S1aH1,S2aH7,S3aH8,S1aH6,S1aH8,S5aH1,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4aH1,S2aH1,S3aH7,S5aH8,S4aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH4,S2aH2,S3aH5,S5aH3,S3aH2,S1aH2,S2aH3,S1aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S4aH2,S5aH4,S4aH5,S3aH4,S4aH3,S4aH4,S3aH3</v>
+        <v>S3aH3,S3aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S3aH4,S4aH3,S4aH4,S3aH5,S5aH3,S1aH3,S5aH4,S1aH4,S2aH2,S1aH2,S2aH3,S4aH2,S4aH5</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1685,7 +1685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A14E61C-7D96-4DD4-935A-5FCB2D719367}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECEDB32-BA32-460C-9E20-A62E40FA2A9E}">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1805,7 +1805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B7A371-B338-428D-8FD2-E1A5E3C4A906}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337EBDE1-86F4-41EA-AC77-461EF79947A0}">
   <dimension ref="B2:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1884,10 +1884,10 @@
         <v>137</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N4">
-        <v>0.18220731142989358</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O4" t="s">
         <v>148</v>
@@ -1919,10 +1919,10 @@
         <v>137</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N5">
-        <v>7.5520592318371119E-2</v>
+        <v>0.63189495603887091</v>
       </c>
       <c r="O5" t="s">
         <v>148</v>
@@ -1989,10 +1989,10 @@
         <v>137</v>
       </c>
       <c r="M7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>0.63189495603887091</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O7" t="s">
         <v>148</v>
@@ -2024,10 +2024,10 @@
         <v>137</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="N8">
-        <v>0.14770939379916706</v>
+        <v>0.18220731142989358</v>
       </c>
       <c r="O8" t="s">
         <v>148</v>
@@ -2949,7 +2949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC01D025-FC18-4642-875D-E2BD798966AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3973475D-C1CA-4A4D-B6C8-A2E4FB828D0D}">
   <dimension ref="B2:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4755EB-5DB7-4CDF-814B-691D00ECC2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B10D663-37BE-49D0-B0A4-4DA079FD87BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -465,10 +465,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH3,S3aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S3aH4,S4aH3,S4aH4,S3aH5,S5aH3,S1aH3,S5aH4,S1aH4,S2aH2,S1aH2,S2aH3,S4aH2,S4aH5</t>
-  </si>
-  <si>
-    <t>S4aH6,S2aH8,S2aH6,S3aH1,S1aH1,S2aH7,S3aH8,S1aH6,S1aH8,S5aH1,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4aH1,S2aH1,S3aH7,S5aH8,S4aH8</t>
+    <t>S1aH2,S2aH3,S4aH5,S3aH3,S3aH4,S4aH3,S4aH4,S1aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH4,S2aH2,S3aH2,S5aH4,S4aH2,S3aH5,S5aH3</t>
+  </si>
+  <si>
+    <t>S2aH6,S3aH1,S4aH6,S2aH8,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1aH6,S4aH1,S1aH1,S2aH7,S4aH8,S3aH8,S2aH1,S3aH7,S5aH8,S1aH8,S5aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4aH6,S2aH8,S2aH6,S3aH1,S1aH1,S2aH7,S3aH8,S1aH6,S1aH8,S5aH1,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4aH1,S2aH1,S3aH7,S5aH8,S4aH8</v>
+        <v>S2aH6,S3aH1,S4aH6,S2aH8,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1aH6,S4aH1,S1aH1,S2aH7,S4aH8,S3aH8,S2aH1,S3aH7,S5aH8,S1aH8,S5aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH3,S3aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S3aH4,S4aH3,S4aH4,S3aH5,S5aH3,S1aH3,S5aH4,S1aH4,S2aH2,S1aH2,S2aH3,S4aH2,S4aH5</v>
+        <v>S1aH2,S2aH3,S4aH5,S3aH3,S3aH4,S4aH3,S4aH4,S1aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH4,S2aH2,S3aH2,S5aH4,S4aH2,S3aH5,S5aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1685,7 +1685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECEDB32-BA32-460C-9E20-A62E40FA2A9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B296C5-6305-4A36-B33B-CF584E051159}">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1805,7 +1805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337EBDE1-86F4-41EA-AC77-461EF79947A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54164BE6-58D1-4122-8B99-C291CB02E89E}">
   <dimension ref="B2:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1884,10 +1884,10 @@
         <v>137</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="N4">
-        <v>7.5520592318371119E-2</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O4" t="s">
         <v>148</v>
@@ -1919,10 +1919,10 @@
         <v>137</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N5">
-        <v>0.63189495603887091</v>
+        <v>0.18220731142989358</v>
       </c>
       <c r="O5" t="s">
         <v>148</v>
@@ -1954,10 +1954,10 @@
         <v>137</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N6">
-        <v>0.16266774641369736</v>
+        <v>0.63189495603887091</v>
       </c>
       <c r="O6" t="s">
         <v>148</v>
@@ -2024,10 +2024,10 @@
         <v>137</v>
       </c>
       <c r="M8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N8">
-        <v>0.18220731142989358</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O8" t="s">
         <v>148</v>
@@ -2949,7 +2949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3973475D-C1CA-4A4D-B6C8-A2E4FB828D0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024AE47B-5CA2-4E23-A892-DF57303AA22C}">
   <dimension ref="B2:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B10D663-37BE-49D0-B0A4-4DA079FD87BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20196BBC-185A-4F90-ABD8-C2B81B944B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -465,10 +465,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S4aH5,S3aH3,S3aH4,S4aH3,S4aH4,S1aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH4,S2aH2,S3aH2,S5aH4,S4aH2,S3aH5,S5aH3</t>
-  </si>
-  <si>
-    <t>S2aH6,S3aH1,S4aH6,S2aH8,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1aH6,S4aH1,S1aH1,S2aH7,S4aH8,S3aH8,S2aH1,S3aH7,S5aH8,S1aH8,S5aH1</t>
+    <t>S4aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S3aH4,S4aH3,S4aH4,S1aH2,S2aH3,S1aH3,S3aH2,S3aH3,S5aH4,S4aH5,S3aH5,S5aH3,S1aH4,S2aH2</t>
+  </si>
+  <si>
+    <t>S2aH1,S3aH7,S5aH8,S1aH6,S1aH1,S2aH7,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S3aH8,S4aH6,S4aH8,S1aH8,S5aH1,S2aH8,S4aH1,S2aH6,S3aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH6,S3aH1,S4aH6,S2aH8,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1aH6,S4aH1,S1aH1,S2aH7,S4aH8,S3aH8,S2aH1,S3aH7,S5aH8,S1aH8,S5aH1</v>
+        <v>S2aH1,S3aH7,S5aH8,S1aH6,S1aH1,S2aH7,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S3aH8,S4aH6,S4aH8,S1aH8,S5aH1,S2aH8,S4aH1,S2aH6,S3aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S4aH5,S3aH3,S3aH4,S4aH3,S4aH4,S1aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH4,S2aH2,S3aH2,S5aH4,S4aH2,S3aH5,S5aH3</v>
+        <v>S4aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S3aH4,S4aH3,S4aH4,S1aH2,S2aH3,S1aH3,S3aH2,S3aH3,S5aH4,S4aH5,S3aH5,S5aH3,S1aH4,S2aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1685,7 +1685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B296C5-6305-4A36-B33B-CF584E051159}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E43651-3433-47FF-B453-CDEF7902C057}">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1805,7 +1805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54164BE6-58D1-4122-8B99-C291CB02E89E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7766CC07-719B-4EEB-BCBF-78CF0069ECD5}">
   <dimension ref="B2:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1884,10 +1884,10 @@
         <v>137</v>
       </c>
       <c r="M4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N4">
-        <v>0.16266774641369736</v>
+        <v>0.18220731142989358</v>
       </c>
       <c r="O4" t="s">
         <v>148</v>
@@ -1919,10 +1919,10 @@
         <v>137</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N5">
-        <v>0.18220731142989358</v>
+        <v>0.63189495603887091</v>
       </c>
       <c r="O5" t="s">
         <v>148</v>
@@ -1954,10 +1954,10 @@
         <v>137</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N6">
-        <v>0.63189495603887091</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O6" t="s">
         <v>148</v>
@@ -1989,10 +1989,10 @@
         <v>137</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N7">
-        <v>0.14770939379916706</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O7" t="s">
         <v>148</v>
@@ -2024,10 +2024,10 @@
         <v>137</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N8">
-        <v>7.5520592318371119E-2</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O8" t="s">
         <v>148</v>
@@ -2949,7 +2949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024AE47B-5CA2-4E23-A892-DF57303AA22C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0283877A-DE95-4BF8-8C28-5323949EB06B}">
   <dimension ref="B2:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06F26ED6-5D82-4BD1-9729-5B86378194DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B19B6CA-7312-4934-8DE9-3E2D0D54E48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -471,10 +471,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S4aH5,S5aH4,S3aH7,S2aH6,S3aH5,S5aH3,S2aH7,S3aH4,S4aH3,S4aH4,S1aH3,S1aH4,S2aH2,S4aH6,S3aH2,S4aH2,S3aH3,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH6,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5</t>
-  </si>
-  <si>
-    <t>S3aH1,S2aH8,S1aH8,S5aH1,S4aH1,S4aH8,S1aH1,S3aH8,S2aH1,S5aH8</t>
+    <t>S1aH3,S3aH7,S3aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH6,S4aH2,S5aH4,S2aH6,S3aH5,S5aH3,S3aH3,S2aH7,S3aH4,S4aH3,S4aH4,S4aH5,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH4,S2aH2,S4aH6</t>
+  </si>
+  <si>
+    <t>S2aH8,S1aH1,S3aH8,S4aH8,S2aH1,S5aH8,S1aH8,S5aH1,S4aH1,S3aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -791,7 +791,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C166FD8A-26F9-140A-8536-05954EB5EDD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF5D161E-D3C6-6DC0-BD6D-46FFC8FCE72A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -846,7 +846,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E3668B-2963-B250-F4C2-E51543EEA717}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB95E8C9-D2D9-6347-E0E6-B2B0226523C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -901,7 +901,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD4F5AA-2CB9-DF42-8847-1B885F201CD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83461237-FA51-9585-7FE7-81096FEAA564}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3aH1,S2aH8,S1aH8,S5aH1,S4aH1,S4aH8,S1aH1,S3aH8,S2aH1,S5aH8</v>
+        <v>S2aH8,S1aH1,S3aH8,S4aH8,S2aH1,S5aH8,S1aH8,S5aH1,S4aH1,S3aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S4aH5,S5aH4,S3aH7,S2aH6,S3aH5,S5aH3,S2aH7,S3aH4,S4aH3,S4aH4,S1aH3,S1aH4,S2aH2,S4aH6,S3aH2,S4aH2,S3aH3,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH6,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5</v>
+        <v>S1aH3,S3aH7,S3aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH6,S4aH2,S5aH4,S2aH6,S3aH5,S5aH3,S3aH3,S2aH7,S3aH4,S4aH3,S4aH4,S4aH5,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH4,S2aH2,S4aH6</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1954,7 +1954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5913730D-D949-4C82-90F8-755B88FF1367}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2315036-BA38-4084-BD85-19EA991C1A8C}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2114,7 +2114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE2F8D7-897F-4301-8F00-0B7BB39EE8CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30E7254-FDD4-4213-9897-08AB2B72DA99}">
   <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2243,10 +2243,10 @@
         <v>98</v>
       </c>
       <c r="Q11" s="23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R11" s="24">
-        <v>7.7845904673762151E-2</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>151</v>
@@ -2290,10 +2290,10 @@
         <v>98</v>
       </c>
       <c r="Q12" s="25" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R12" s="26">
-        <v>7.5520592318371119E-2</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="S12" s="25" t="s">
         <v>151</v>
@@ -2337,10 +2337,10 @@
         <v>98</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R13" s="24">
-        <v>0.14770939379916706</v>
+        <v>0.81410226746876446</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>151</v>
@@ -2384,10 +2384,10 @@
         <v>98</v>
       </c>
       <c r="Q14" s="25" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="R14" s="26">
-        <v>0.81410226746876446</v>
+        <v>7.7845904673762151E-2</v>
       </c>
       <c r="S14" s="25" t="s">
         <v>151</v>
@@ -2431,10 +2431,10 @@
         <v>98</v>
       </c>
       <c r="Q15" s="23" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="R15" s="24">
-        <v>8.4821841739935219E-2</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="S15" s="23" t="s">
         <v>151</v>
@@ -3780,7 +3780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80A6748-0146-47DC-995B-233251B414D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332E51EA-8DF9-45A1-8379-C783479608C8}">
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C7D53C5-12E2-4E10-9FDF-A8DB60030595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B5E00E3-007F-483E-8145-DFD60BF188E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -468,10 +468,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH6,S1aH4,S2aH2,S4aH6,S5aH4,S3aH2,S2aH6,S3aH5,S5aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S4aH2,S3aH3,S3aH7,S4aH5,S2aH7,S3aH4,S4aH3,S4aH4,S1aH3</t>
-  </si>
-  <si>
-    <t>S4aH1,S3aH1,S3aH8,S1aH8,S5aH1,S2aH1,S5aH8,S2aH8,S4aH8,S1aH1</t>
+    <t>S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S2aH7,S3aH4,S4aH3,S4aH4,S1aH4,S2aH2,S4aH6,S1aH3,S5aH4,S4aH2,S1aH6,S3aH7,S3aH3,S4aH5,S3aH2,S2aH6,S3aH5,S5aH3</t>
+  </si>
+  <si>
+    <t>S1aH1,S4aH1,S2aH1,S5aH8,S2aH8,S4aH8,S3aH1,S3aH8,S1aH8,S5aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4aH1,S3aH1,S3aH8,S1aH8,S5aH1,S2aH1,S5aH8,S2aH8,S4aH8,S1aH1</v>
+        <v>S1aH1,S4aH1,S2aH1,S5aH8,S2aH8,S4aH8,S3aH1,S3aH8,S1aH8,S5aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH6,S1aH4,S2aH2,S4aH6,S5aH4,S3aH2,S2aH6,S3aH5,S5aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S4aH2,S3aH3,S3aH7,S4aH5,S2aH7,S3aH4,S4aH3,S4aH4,S1aH3</v>
+        <v>S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S2aH7,S3aH4,S4aH3,S4aH4,S1aH4,S2aH2,S4aH6,S1aH3,S5aH4,S4aH2,S1aH6,S3aH7,S3aH3,S4aH5,S3aH2,S2aH6,S3aH5,S5aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1688,7 +1688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A690B66D-1ECD-4182-9A15-FE08BF787DB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C936432-31B1-485B-B937-2B0E24273186}">
   <dimension ref="B9:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1808,7 +1808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1F1F58-ACB5-44AA-8027-CFCF495B35D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3EC670-1F8E-4000-9B7B-5F7543F33820}">
   <dimension ref="B9:S50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1914,10 +1914,10 @@
         <v>97</v>
       </c>
       <c r="Q11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R11">
-        <v>7.7845904673762151E-2</v>
+        <v>0.81410226746876446</v>
       </c>
       <c r="S11" t="s">
         <v>150</v>
@@ -1961,10 +1961,10 @@
         <v>97</v>
       </c>
       <c r="Q12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R12">
-        <v>8.4821841739935219E-2</v>
+        <v>7.7845904673762151E-2</v>
       </c>
       <c r="S12" t="s">
         <v>150</v>
@@ -2008,10 +2008,10 @@
         <v>97</v>
       </c>
       <c r="Q13" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="R13">
-        <v>0.14770939379916706</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="S13" t="s">
         <v>150</v>
@@ -2102,10 +2102,10 @@
         <v>97</v>
       </c>
       <c r="Q15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="R15">
-        <v>0.81410226746876446</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="S15" t="s">
         <v>150</v>
@@ -3447,7 +3447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEEF4D1-FD99-4AD3-85B6-84B201FEFA1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041989CD-03AD-4A60-93AD-606262F76625}">
   <dimension ref="B9:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD3728C6-6E99-4B1B-8F8C-FE687A2ABE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88E46AF2-3A1A-4F83-887A-F7190CC059AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
     <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
+    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
+    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="151">
   <si>
     <t>UC_N</t>
   </si>
@@ -76,24 +78,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>daynight</t>
-  </si>
-  <si>
-    <t>TimeSlices</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
-  </si>
-  <si>
-    <t>Night</t>
-  </si>
-  <si>
-    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
-  </si>
-  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -329,6 +313,186 @@
   </si>
   <si>
     <t>H8</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>com_fr</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA</t>
+  </si>
+  <si>
+    <t>S1aH1</t>
+  </si>
+  <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
+    <t>S1aH2</t>
+  </si>
+  <si>
+    <t>S1aH3</t>
+  </si>
+  <si>
+    <t>S1aH4</t>
+  </si>
+  <si>
+    <t>S1aH5</t>
+  </si>
+  <si>
+    <t>S1aH6</t>
+  </si>
+  <si>
+    <t>S1aH7</t>
+  </si>
+  <si>
+    <t>S1aH8</t>
+  </si>
+  <si>
+    <t>S2aH1</t>
+  </si>
+  <si>
+    <t>S2aH2</t>
+  </si>
+  <si>
+    <t>S2aH3</t>
+  </si>
+  <si>
+    <t>S2aH4</t>
+  </si>
+  <si>
+    <t>S2aH5</t>
+  </si>
+  <si>
+    <t>S2aH6</t>
+  </si>
+  <si>
+    <t>S2aH7</t>
+  </si>
+  <si>
+    <t>S2aH8</t>
+  </si>
+  <si>
+    <t>S3aH1</t>
+  </si>
+  <si>
+    <t>S3aH2</t>
+  </si>
+  <si>
+    <t>S3aH3</t>
+  </si>
+  <si>
+    <t>S3aH4</t>
+  </si>
+  <si>
+    <t>S3aH5</t>
+  </si>
+  <si>
+    <t>S3aH6</t>
+  </si>
+  <si>
+    <t>S3aH7</t>
+  </si>
+  <si>
+    <t>S3aH8</t>
+  </si>
+  <si>
+    <t>S4aH1</t>
+  </si>
+  <si>
+    <t>S4aH2</t>
+  </si>
+  <si>
+    <t>S4aH3</t>
+  </si>
+  <si>
+    <t>S4aH4</t>
+  </si>
+  <si>
+    <t>S4aH5</t>
+  </si>
+  <si>
+    <t>S4aH6</t>
+  </si>
+  <si>
+    <t>S4aH7</t>
+  </si>
+  <si>
+    <t>S4aH8</t>
+  </si>
+  <si>
+    <t>S5aH1</t>
+  </si>
+  <si>
+    <t>S5aH2</t>
+  </si>
+  <si>
+    <t>S5aH3</t>
+  </si>
+  <si>
+    <t>S5aH4</t>
+  </si>
+  <si>
+    <t>S5aH5</t>
+  </si>
+  <si>
+    <t>S5aH6</t>
+  </si>
+  <si>
+    <t>S5aH7</t>
+  </si>
+  <si>
+    <t>S5aH8</t>
+  </si>
+  <si>
+    <t>elc_won-ITA</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA</t>
+  </si>
+  <si>
+    <t>g_yrfr</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>day_night</t>
+  </si>
+  <si>
+    <t>S2aH6,S3aH5,S5aH3,S4aH2,S4aH5,S5aH4,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH3,S3aH2,S3aH3,S1aH6,S2aH7,S3aH4,S4aH3,S4aH4,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S3aH7,S1aH4,S2aH2,S4aH6</t>
+  </si>
+  <si>
+    <t>S1aH8,S5aH1,S2aH1,S5aH8,S3aH1,S4aH8,S3aH8,S1aH1,S2aH8,S4aH1</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>~TFM_INS-AT</t>
+  </si>
+  <si>
+    <t>ncap_afs</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>hydro</t>
   </si>
 </sst>
 </file>
@@ -821,7 +985,7 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
@@ -842,7 +1006,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -857,7 +1021,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -865,21 +1029,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
+        <v>S1aH8,S5aH1,S2aH1,S5aH8,S3aH1,S4aH8,S3aH8,S1aH1,S2aH8,S4aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -897,21 +1061,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
+        <v>S2aH6,S3aH5,S5aH3,S4aH2,S4aH5,S5aH4,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH3,S3aH2,S3aH3,S1aH6,S2aH7,S3aH4,S4aH3,S4aH4,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S3aH7,S1aH4,S2aH2,S4aH6</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -923,26 +1087,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -970,551 +1134,551 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -1524,118 +1688,3533 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9244459-E50B-4F3B-88EF-CBFCCDCFD126}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FD31A7-2DEF-4157-B68A-62981C525A43}">
   <dimension ref="B9:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40A43E0-AFD1-4A5E-99C9-A4E65B083FBA}">
+  <dimension ref="B9:S50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" t="s">
+        <v>148</v>
+      </c>
+      <c r="S10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11">
+        <v>6.5177999162518027E-2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11">
+        <v>7.5520592318371119E-2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12">
+        <v>4.0402661080416754E-4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12">
+        <v>8.9016802896140623E-3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>84</v>
+      </c>
+      <c r="R12">
+        <v>8.4821841739935219E-2</v>
+      </c>
+      <c r="S12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13">
+        <v>5.1375352768875957E-3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13">
+        <v>8.7857207223878634E-3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>82</v>
+      </c>
+      <c r="R13">
+        <v>0.81410226746876446</v>
+      </c>
+      <c r="S13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>9.669713700753084E-3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>8.7261445425091174E-3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>86</v>
+      </c>
+      <c r="R14">
+        <v>7.7845904673762151E-2</v>
+      </c>
+      <c r="S14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15">
+        <v>7.7140123355694007E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15">
+        <v>5.9098166388513146E-2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="s">
+        <v>101</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>76</v>
+      </c>
+      <c r="R15">
+        <v>0.14770939379916706</v>
+      </c>
+      <c r="S15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16">
+        <v>9.5090606687457356E-3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16">
+        <v>9.8438041452370405E-3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="s">
+        <v>102</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17">
+        <v>5.3967262932548572E-3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17">
+        <v>9.7114512439710563E-3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M17" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18">
+        <v>7.4448558508796747E-4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18">
+        <v>5.7931027923565324E-2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19">
+        <v>1.2088336224570917E-4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19">
+        <v>3.8436286760167325E-2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" t="s">
+        <v>105</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20">
+        <v>2.305098472925966E-3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20">
+        <v>5.173828266048364E-3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" t="s">
+        <v>138</v>
+      </c>
+      <c r="M20" t="s">
+        <v>106</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21">
+        <v>4.8037594574828688E-3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21">
+        <v>5.1520545765878396E-3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21" t="s">
+        <v>138</v>
+      </c>
+      <c r="M21" t="s">
+        <v>107</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22">
+        <v>6.8152219356529811E-3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22">
+        <v>5.3805241413978789E-3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>97</v>
+      </c>
+      <c r="L22" t="s">
+        <v>138</v>
+      </c>
+      <c r="M22" t="s">
+        <v>108</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23">
+        <v>4.9601426554950881E-2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23">
+        <v>3.5728475942710405E-2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>97</v>
+      </c>
+      <c r="L23" t="s">
+        <v>138</v>
+      </c>
+      <c r="M23" t="s">
+        <v>109</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24">
+        <v>6.7655548717173832E-3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24">
+        <v>6.2916651699951682E-3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>97</v>
+      </c>
+      <c r="L24" t="s">
+        <v>138</v>
+      </c>
+      <c r="M24" t="s">
+        <v>110</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25">
+        <v>4.9968145617127055E-3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25">
+        <v>6.1675610473114519E-3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>97</v>
+      </c>
+      <c r="L25" t="s">
+        <v>138</v>
+      </c>
+      <c r="M25" t="s">
+        <v>111</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26">
+        <v>2.4902042237906438E-3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26">
+        <v>3.5222546247604819E-2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L26" t="s">
+        <v>138</v>
+      </c>
+      <c r="M26" t="s">
+        <v>112</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27">
+        <v>1.6703966987613592E-2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27">
+        <v>0.12608766422995274</v>
+      </c>
+      <c r="J27" t="s">
+        <v>97</v>
+      </c>
+      <c r="L27" t="s">
+        <v>138</v>
+      </c>
+      <c r="M27" t="s">
+        <v>113</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28">
+        <v>3.5407316900333823E-2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28">
+        <v>1.6957020504855484E-2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>97</v>
+      </c>
+      <c r="L28" t="s">
+        <v>138</v>
+      </c>
+      <c r="M28" t="s">
+        <v>114</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29">
+        <v>5.1946463021466993E-2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29">
+        <v>1.73044874417357E-2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>97</v>
+      </c>
+      <c r="L29" t="s">
+        <v>138</v>
+      </c>
+      <c r="M29" t="s">
+        <v>115</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30">
+        <v>6.32529198255673E-2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30">
+        <v>1.7878967588576197E-2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>97</v>
+      </c>
+      <c r="L30" t="s">
+        <v>138</v>
+      </c>
+      <c r="M30" t="s">
+        <v>116</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31">
+        <v>0.41320965762178502</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31">
+        <v>0.1242858137434189</v>
+      </c>
+      <c r="J31" t="s">
+        <v>97</v>
+      </c>
+      <c r="L31" t="s">
+        <v>138</v>
+      </c>
+      <c r="M31" t="s">
+        <v>117</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32">
+        <v>5.6717333098209706E-2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32">
+        <v>2.3045166923211787E-2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>97</v>
+      </c>
+      <c r="L32" t="s">
+        <v>138</v>
+      </c>
+      <c r="M32" t="s">
+        <v>118</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33">
+        <v>4.4663473646768287E-2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" t="s">
+        <v>137</v>
+      </c>
+      <c r="H33" t="s">
+        <v>119</v>
+      </c>
+      <c r="I33">
+        <v>2.2039651297633179E-2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>97</v>
+      </c>
+      <c r="L33" t="s">
+        <v>138</v>
+      </c>
+      <c r="M33" t="s">
+        <v>119</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34">
+        <v>3.9495749161890303E-2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34">
+        <v>0.11235061405749221</v>
+      </c>
+      <c r="J34" t="s">
+        <v>97</v>
+      </c>
+      <c r="L34" t="s">
+        <v>138</v>
+      </c>
+      <c r="M34" t="s">
+        <v>120</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" t="s">
+        <v>137</v>
+      </c>
+      <c r="H35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35">
+        <v>3.118113651824872E-2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>97</v>
+      </c>
+      <c r="L35" t="s">
+        <v>138</v>
+      </c>
+      <c r="M35" t="s">
+        <v>121</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36">
+        <v>4.7001604013612968E-4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I36">
+        <v>4.4245064877947498E-3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>97</v>
+      </c>
+      <c r="L36" t="s">
+        <v>138</v>
+      </c>
+      <c r="M36" t="s">
+        <v>122</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37">
+        <v>2.9316153481718727E-3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37">
+        <v>4.3511914547179195E-3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>97</v>
+      </c>
+      <c r="L37" t="s">
+        <v>138</v>
+      </c>
+      <c r="M37" t="s">
+        <v>123</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38">
+        <v>4.804885045303897E-3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38">
+        <v>4.3902233397552339E-3</v>
+      </c>
+      <c r="J38" t="s">
+        <v>97</v>
+      </c>
+      <c r="L38" t="s">
+        <v>138</v>
+      </c>
+      <c r="M38" t="s">
+        <v>124</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39">
+        <v>3.4403747999505192E-2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39" t="s">
+        <v>125</v>
+      </c>
+      <c r="I39">
+        <v>2.7364207023481444E-2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>97</v>
+      </c>
+      <c r="L39" t="s">
+        <v>138</v>
+      </c>
+      <c r="M39" t="s">
+        <v>125</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40">
+        <v>3.3803169183094549E-3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" t="s">
+        <v>137</v>
+      </c>
+      <c r="H40" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40">
+        <v>4.5968129989655418E-3</v>
+      </c>
+      <c r="J40" t="s">
+        <v>97</v>
+      </c>
+      <c r="L40" t="s">
+        <v>138</v>
+      </c>
+      <c r="M40" t="s">
+        <v>126</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41">
+        <v>1.1347706285529048E-3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" t="s">
+        <v>127</v>
+      </c>
+      <c r="I41">
+        <v>4.5966688033466149E-3</v>
+      </c>
+      <c r="J41" t="s">
+        <v>97</v>
+      </c>
+      <c r="L41" t="s">
+        <v>138</v>
+      </c>
+      <c r="M41" t="s">
+        <v>127</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" t="s">
+        <v>137</v>
+      </c>
+      <c r="H42" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42">
+        <v>2.7615295655980289E-2</v>
+      </c>
+      <c r="J42" t="s">
+        <v>97</v>
+      </c>
+      <c r="L42" t="s">
+        <v>138</v>
+      </c>
+      <c r="M42" t="s">
+        <v>128</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" t="s">
+        <v>137</v>
+      </c>
+      <c r="H43" t="s">
+        <v>129</v>
+      </c>
+      <c r="I43">
+        <v>1.9641739691854981E-2</v>
+      </c>
+      <c r="J43" t="s">
+        <v>97</v>
+      </c>
+      <c r="L43" t="s">
+        <v>138</v>
+      </c>
+      <c r="M43" t="s">
+        <v>129</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44">
+        <v>1.9677569622074025E-5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" t="s">
+        <v>137</v>
+      </c>
+      <c r="H44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I44">
+        <v>2.8253470461085217E-3</v>
+      </c>
+      <c r="J44" t="s">
+        <v>97</v>
+      </c>
+      <c r="L44" t="s">
+        <v>138</v>
+      </c>
+      <c r="M44" t="s">
+        <v>130</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45">
+        <v>1.8919636001164808E-3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" t="s">
+        <v>137</v>
+      </c>
+      <c r="H45" t="s">
+        <v>131</v>
+      </c>
+      <c r="I45">
+        <v>2.7692866773942879E-3</v>
+      </c>
+      <c r="J45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L45" t="s">
+        <v>138</v>
+      </c>
+      <c r="M45" t="s">
+        <v>131</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46">
+        <v>4.2640310597971843E-3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" t="s">
+        <v>137</v>
+      </c>
+      <c r="H46" t="s">
+        <v>132</v>
+      </c>
+      <c r="I46">
+        <v>2.7087884488752739E-3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>97</v>
+      </c>
+      <c r="L46" t="s">
+        <v>138</v>
+      </c>
+      <c r="M46" t="s">
+        <v>132</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47">
+        <v>3.5263730164802859E-2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" t="s">
+        <v>137</v>
+      </c>
+      <c r="H47" t="s">
+        <v>133</v>
+      </c>
+      <c r="I47">
+        <v>1.6963571297339521E-2</v>
+      </c>
+      <c r="J47" t="s">
+        <v>97</v>
+      </c>
+      <c r="L47" t="s">
+        <v>138</v>
+      </c>
+      <c r="M47" t="s">
+        <v>133</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48">
+        <v>3.5862709736155813E-3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" t="s">
+        <v>137</v>
+      </c>
+      <c r="H48" t="s">
+        <v>134</v>
+      </c>
+      <c r="I48">
+        <v>2.7856074940315907E-3</v>
+      </c>
+      <c r="J48" t="s">
+        <v>97</v>
+      </c>
+      <c r="L48" t="s">
+        <v>138</v>
+      </c>
+      <c r="M48" t="s">
+        <v>134</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49">
+        <v>5.5145945653370691E-4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>97</v>
+      </c>
+      <c r="G49" t="s">
+        <v>137</v>
+      </c>
+      <c r="H49" t="s">
+        <v>135</v>
+      </c>
+      <c r="I49">
+        <v>2.7672962517044353E-3</v>
+      </c>
+      <c r="J49" t="s">
+        <v>97</v>
+      </c>
+      <c r="L49" t="s">
+        <v>138</v>
+      </c>
+      <c r="M49" t="s">
+        <v>135</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50" t="s">
+        <v>137</v>
+      </c>
+      <c r="H50" t="s">
+        <v>136</v>
+      </c>
+      <c r="I50">
+        <v>1.5339998453180227E-2</v>
+      </c>
+      <c r="J50" t="s">
+        <v>97</v>
+      </c>
+      <c r="L50" t="s">
+        <v>138</v>
+      </c>
+      <c r="M50" t="s">
+        <v>136</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE4C29A-030D-4E46-9844-8F5F8CC8EBE1}">
+  <dimension ref="B9:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>4.714611872146119E-2</v>
+      </c>
+      <c r="C11">
+        <v>1.861886648600718E-2</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>86</v>
+        <v>140</v>
+      </c>
+      <c r="G11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11">
+        <v>4.1328001177643389E-2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11">
+        <v>0.29524362667493453</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>6.735159817351598E-3</v>
+      </c>
+      <c r="C12">
+        <v>1.124563889648543E-2</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>88</v>
+        <v>98</v>
+      </c>
+      <c r="E12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12">
+        <v>8.0851488420039929E-3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12">
+        <v>4.7126123672023956E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>6.735159817351598E-3</v>
+      </c>
+      <c r="C13">
+        <v>8.6053584599192871E-3</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>90</v>
+        <v>99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13">
+        <v>8.3943858858496045E-3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M13">
+        <v>4.7484009459135335E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>6.735159817351598E-3</v>
+      </c>
+      <c r="C14">
+        <v>8.5271279284654736E-3</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>8.5234446018451013E-3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>4.5197330291383508E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>4.041095890410959E-2</v>
+      </c>
+      <c r="C15">
+        <v>5.2844723997049793E-2</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+      <c r="E15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15">
+        <v>5.0248407920968324E-2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15">
+        <v>6.4766514599613911E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>6.735159817351598E-3</v>
+      </c>
+      <c r="C16">
+        <v>1.3103614018513452E-2</v>
+      </c>
       <c r="D16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+      <c r="E16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16">
+        <v>8.6310567351807702E-3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>102</v>
+      </c>
+      <c r="M16">
+        <v>6.2164802367530525E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>6.735159817351598E-3</v>
+      </c>
+      <c r="C17">
+        <v>1.3103614018513452E-2</v>
+      </c>
       <c r="D17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17">
+        <v>8.7947971885762762E-3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17">
+        <v>4.576243161495408E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>4.041095890410959E-2</v>
+      </c>
+      <c r="C18">
+        <v>3.5594891811484314E-2</v>
+      </c>
       <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18">
+        <v>4.5933251861365224E-2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M18">
+        <v>0.17256843004398537</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>2.4771689497716895E-2</v>
+      </c>
+      <c r="C19">
+        <v>9.7827942553597048E-3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19">
+        <v>2.0824568866859339E-2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" t="s">
+        <v>105</v>
+      </c>
+      <c r="M19">
+        <v>0.27884032566239036</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C20">
+        <v>5.9087255218821738E-3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20">
+        <v>3.9245676009928418E-3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" t="s">
+        <v>106</v>
+      </c>
+      <c r="M20">
+        <v>9.6611285097571775E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C21">
+        <v>4.521459529788099E-3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21">
+        <v>4.0913868705264866E-3</v>
+      </c>
+      <c r="K21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" t="s">
+        <v>107</v>
+      </c>
+      <c r="M21">
+        <v>9.6080459952263109E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C22">
+        <v>4.4803553522445696E-3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22">
+        <v>4.1688716615543011E-3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" t="s">
+        <v>108</v>
+      </c>
+      <c r="M22">
+        <v>8.2359576109102495E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>2.1232876712328767E-2</v>
+      </c>
+      <c r="C23">
+        <v>2.7765871930653274E-2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23">
+        <v>2.442164295768974E-2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" t="s">
+        <v>109</v>
+      </c>
+      <c r="M23">
+        <v>9.7979158927858023E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C24">
+        <v>6.8849497385409693E-3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24">
+        <v>4.1221074481390067E-3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" t="s">
+        <v>110</v>
+      </c>
+      <c r="M24">
+        <v>0.10502466320124371</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C25">
+        <v>6.8849497385409693E-3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25">
+        <v>4.2008237656220781E-3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" t="s">
+        <v>111</v>
+      </c>
+      <c r="M25">
+        <v>9.0436733199047881E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <v>2.1232876712328767E-2</v>
+      </c>
+      <c r="C26">
+        <v>1.8702400782305319E-2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26">
+        <v>2.2759179864093298E-2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M26">
+        <v>0.18825329553942427</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <v>0.17100456621004567</v>
+      </c>
+      <c r="C27">
+        <v>6.7532837762805706E-2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27">
+        <v>0.13320230999204724</v>
+      </c>
+      <c r="K27" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" t="s">
+        <v>113</v>
+      </c>
+      <c r="M27">
+        <v>0.25985286268441565</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <v>2.4429223744292239E-2</v>
+      </c>
+      <c r="C28">
+        <v>4.0789266505896288E-2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28">
+        <v>2.3977306137538887E-2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" t="s">
+        <v>114</v>
+      </c>
+      <c r="M28">
+        <v>0.1437781303032537</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <v>2.4429223744292239E-2</v>
+      </c>
+      <c r="C29">
+        <v>3.1212656108859781E-2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29">
+        <v>2.5507098538158256E-2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" t="s">
+        <v>115</v>
+      </c>
+      <c r="M29">
+        <v>0.12665311716601546</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <v>2.4429223744292239E-2</v>
+      </c>
+      <c r="C30">
+        <v>3.0928904689688334E-2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30">
+        <v>2.5805709911673455E-2</v>
+      </c>
+      <c r="K30" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" t="s">
+        <v>116</v>
+      </c>
+      <c r="M30">
+        <v>0.12693702465211176</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <v>0.14657534246575343</v>
+      </c>
+      <c r="C31">
+        <v>0.19167408365031621</v>
+      </c>
+      <c r="D31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31">
+        <v>0.15521643441912966</v>
+      </c>
+      <c r="K31" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" t="s">
+        <v>117</v>
+      </c>
+      <c r="M31">
+        <v>0.14961522745067146</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <v>2.4429223744292239E-2</v>
+      </c>
+      <c r="C32">
+        <v>4.7528362711218297E-2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32">
+        <v>2.5809978953074755E-2</v>
+      </c>
+      <c r="K32" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" t="s">
+        <v>118</v>
+      </c>
+      <c r="M32">
+        <v>0.13458066003303992</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <v>2.4429223744292239E-2</v>
+      </c>
+      <c r="C33">
+        <v>4.7528362711218297E-2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" t="s">
+        <v>119</v>
+      </c>
+      <c r="I33">
+        <v>2.5737138668830938E-2</v>
+      </c>
+      <c r="K33" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" t="s">
+        <v>119</v>
+      </c>
+      <c r="M33">
+        <v>0.12610981310474711</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <v>0.14657534246575343</v>
+      </c>
+      <c r="C34">
+        <v>0.1291068957230109</v>
+      </c>
+      <c r="D34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34">
+        <v>0.14227637669648507</v>
+      </c>
+      <c r="K34" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" t="s">
+        <v>120</v>
+      </c>
+      <c r="M34">
+        <v>0.20525372495743577</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <v>2.3972602739726026E-2</v>
+      </c>
+      <c r="C35">
+        <v>9.4672202471222967E-3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35">
+        <v>1.9538444753611703E-2</v>
+      </c>
+      <c r="K35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" t="s">
+        <v>121</v>
+      </c>
+      <c r="M35">
+        <v>0.26029840725414699</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <v>3.4246575342465752E-3</v>
+      </c>
+      <c r="C36">
+        <v>5.7181214727892006E-3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I36">
+        <v>3.4864057592608457E-3</v>
+      </c>
+      <c r="K36" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" t="s">
+        <v>122</v>
+      </c>
+      <c r="M36">
+        <v>0.1088247774425577</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <v>3.4246575342465752E-3</v>
+      </c>
+      <c r="C37">
+        <v>4.3756059965691279E-3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" t="s">
+        <v>144</v>
+      </c>
+      <c r="H37" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37">
+        <v>3.7119177774181662E-3</v>
+      </c>
+      <c r="K37" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" t="s">
+        <v>123</v>
+      </c>
+      <c r="M37">
+        <v>0.10091449162366417</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <v>3.4246575342465752E-3</v>
+      </c>
+      <c r="C38">
+        <v>4.3358277602366805E-3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" t="s">
+        <v>144</v>
+      </c>
+      <c r="H38" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38">
+        <v>3.8256875430301165E-3</v>
+      </c>
+      <c r="K38" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" t="s">
+        <v>124</v>
+      </c>
+      <c r="M38">
+        <v>9.4518549395581575E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <v>2.0547945205479451E-2</v>
+      </c>
+      <c r="C39">
+        <v>2.6870198642567691E-2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" t="s">
+        <v>144</v>
+      </c>
+      <c r="H39" t="s">
+        <v>125</v>
+      </c>
+      <c r="I39">
+        <v>2.2680407239538517E-2</v>
+      </c>
+      <c r="K39" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" t="s">
+        <v>125</v>
+      </c>
+      <c r="M39">
+        <v>9.9601064708898956E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <v>3.4246575342465752E-3</v>
+      </c>
+      <c r="C40">
+        <v>6.662854585684809E-3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" t="s">
+        <v>144</v>
+      </c>
+      <c r="H40" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40">
+        <v>3.8427749725967971E-3</v>
+      </c>
+      <c r="K40" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40" t="s">
+        <v>126</v>
+      </c>
+      <c r="M40">
+        <v>0.10956517849797653</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B41">
+        <v>3.4246575342465752E-3</v>
+      </c>
+      <c r="C41">
+        <v>6.662854585684809E-3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" t="s">
+        <v>140</v>
+      </c>
+      <c r="G41" t="s">
+        <v>144</v>
+      </c>
+      <c r="H41" t="s">
+        <v>127</v>
+      </c>
+      <c r="I41">
+        <v>3.9151046239201404E-3</v>
+      </c>
+      <c r="K41" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41" t="s">
+        <v>127</v>
+      </c>
+      <c r="M41">
+        <v>0.10509362500442454</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B42">
+        <v>2.0547945205479451E-2</v>
+      </c>
+      <c r="C42">
+        <v>1.8099097531263209E-2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" t="s">
+        <v>140</v>
+      </c>
+      <c r="G42" t="s">
+        <v>144</v>
+      </c>
+      <c r="H42" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42">
+        <v>2.1625916466879176E-2</v>
+      </c>
+      <c r="K42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" t="s">
+        <v>128</v>
+      </c>
+      <c r="M42">
+        <v>0.18435367185845708</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B43">
+        <v>2.4771689497716895E-2</v>
+      </c>
+      <c r="C43">
+        <v>9.7827942553597048E-3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" t="s">
+        <v>144</v>
+      </c>
+      <c r="H43" t="s">
+        <v>129</v>
+      </c>
+      <c r="I43">
+        <v>2.1156992332568451E-2</v>
+      </c>
+      <c r="K43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" t="s">
+        <v>129</v>
+      </c>
+      <c r="M43">
+        <v>0.29553813945098462</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B44">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C44">
+        <v>5.9087255218821738E-3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" t="s">
+        <v>144</v>
+      </c>
+      <c r="H44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I44">
+        <v>4.1218040624841053E-3</v>
+      </c>
+      <c r="K44" t="s">
+        <v>13</v>
+      </c>
+      <c r="L44" t="s">
+        <v>130</v>
+      </c>
+      <c r="M44">
+        <v>5.1574488521035189E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B45">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C45">
+        <v>4.521459529788099E-3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45" t="s">
+        <v>144</v>
+      </c>
+      <c r="H45" t="s">
+        <v>131</v>
+      </c>
+      <c r="I45">
+        <v>4.2866483841047468E-3</v>
+      </c>
+      <c r="K45" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45" t="s">
+        <v>131</v>
+      </c>
+      <c r="M45">
+        <v>5.8368729564079569E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B46">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C46">
+        <v>4.4803553522445696E-3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" t="s">
+        <v>144</v>
+      </c>
+      <c r="H46" t="s">
+        <v>132</v>
+      </c>
+      <c r="I46">
+        <v>4.3482997999440996E-3</v>
+      </c>
+      <c r="K46" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" t="s">
+        <v>132</v>
+      </c>
+      <c r="M46">
+        <v>5.7109260082169211E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B47">
+        <v>2.1232876712328767E-2</v>
+      </c>
+      <c r="C47">
+        <v>2.7765871930653274E-2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" t="s">
+        <v>144</v>
+      </c>
+      <c r="H47" t="s">
+        <v>133</v>
+      </c>
+      <c r="I47">
+        <v>2.5213406276635212E-2</v>
+      </c>
+      <c r="K47" t="s">
+        <v>13</v>
+      </c>
+      <c r="L47" t="s">
+        <v>133</v>
+      </c>
+      <c r="M47">
+        <v>7.3468891897909616E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B48">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C48">
+        <v>6.8849497385409693E-3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" t="s">
+        <v>140</v>
+      </c>
+      <c r="G48" t="s">
+        <v>144</v>
+      </c>
+      <c r="H48" t="s">
+        <v>134</v>
+      </c>
+      <c r="I48">
+        <v>4.3455176014582922E-3</v>
+      </c>
+      <c r="K48" t="s">
+        <v>13</v>
+      </c>
+      <c r="L48" t="s">
+        <v>134</v>
+      </c>
+      <c r="M48">
+        <v>5.8295348927410284E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B49">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C49">
+        <v>6.8849497385409693E-3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" t="s">
+        <v>144</v>
+      </c>
+      <c r="H49" t="s">
+        <v>135</v>
+      </c>
+      <c r="I49">
+        <v>4.4662635138808093E-3</v>
+      </c>
+      <c r="K49" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49" t="s">
+        <v>135</v>
+      </c>
+      <c r="M49">
+        <v>4.6654830078973752E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B50">
+        <v>2.1232876712328767E-2</v>
+      </c>
+      <c r="C50">
+        <v>1.8702400782305319E-2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" t="s">
+        <v>140</v>
+      </c>
+      <c r="G50" t="s">
+        <v>144</v>
+      </c>
+      <c r="H50" t="s">
+        <v>136</v>
+      </c>
+      <c r="I50">
+        <v>2.3450412326820828E-2</v>
+      </c>
+      <c r="K50" t="s">
+        <v>13</v>
+      </c>
+      <c r="L50" t="s">
+        <v>136</v>
+      </c>
+      <c r="M50">
+        <v>0.17595660824229165</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G51" t="s">
+        <v>145</v>
+      </c>
+      <c r="H51" t="s">
         <v>96</v>
       </c>
-      <c r="F18" t="s">
-        <v>83</v>
+      <c r="I51">
+        <v>4.6296111212786775E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G52" t="s">
+        <v>145</v>
+      </c>
+      <c r="H52" t="s">
+        <v>98</v>
+      </c>
+      <c r="I52">
+        <v>6.7881259361066183E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G53" t="s">
+        <v>145</v>
+      </c>
+      <c r="H53" t="s">
+        <v>99</v>
+      </c>
+      <c r="I53">
+        <v>6.8128512704278962E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G54" t="s">
+        <v>145</v>
+      </c>
+      <c r="H54" t="s">
+        <v>100</v>
+      </c>
+      <c r="I54">
+        <v>6.8231702796267323E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G55" t="s">
+        <v>145</v>
+      </c>
+      <c r="H55" t="s">
+        <v>101</v>
+      </c>
+      <c r="I55">
+        <v>4.0867680227639057E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G56" t="s">
+        <v>145</v>
+      </c>
+      <c r="H56" t="s">
+        <v>102</v>
+      </c>
+      <c r="I56">
+        <v>6.8317745074406499E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G57" t="s">
+        <v>145</v>
+      </c>
+      <c r="H57" t="s">
+        <v>103</v>
+      </c>
+      <c r="I57">
+        <v>6.8448665270828468E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G58" t="s">
+        <v>145</v>
+      </c>
+      <c r="H58" t="s">
+        <v>104</v>
+      </c>
+      <c r="I58">
+        <v>4.0522657927285412E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G59" t="s">
+        <v>145</v>
+      </c>
+      <c r="H59" t="s">
+        <v>105</v>
+      </c>
+      <c r="I59">
+        <v>2.4380756632742924E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G60" t="s">
+        <v>145</v>
+      </c>
+      <c r="H60" t="s">
+        <v>106</v>
+      </c>
+      <c r="I60">
+        <v>3.5588937149976336E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G61" t="s">
+        <v>145</v>
+      </c>
+      <c r="H61" t="s">
+        <v>107</v>
+      </c>
+      <c r="I61">
+        <v>3.572231904236404E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G62" t="s">
+        <v>145</v>
+      </c>
+      <c r="H62" t="s">
+        <v>108</v>
+      </c>
+      <c r="I62">
+        <v>3.5784272724857964E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G63" t="s">
+        <v>145</v>
+      </c>
+      <c r="H63" t="s">
+        <v>109</v>
+      </c>
+      <c r="I63">
+        <v>2.1423262747346697E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G64" t="s">
+        <v>145</v>
+      </c>
+      <c r="H64" t="s">
+        <v>110</v>
+      </c>
+      <c r="I64">
+        <v>3.5746881964792946E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G65" t="s">
+        <v>145</v>
+      </c>
+      <c r="H65" t="s">
+        <v>111</v>
+      </c>
+      <c r="I65">
+        <v>3.5809820325673168E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G66" t="s">
+        <v>145</v>
+      </c>
+      <c r="H66" t="s">
+        <v>112</v>
+      </c>
+      <c r="I66">
+        <v>2.1290338970574082E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G67" t="s">
+        <v>145</v>
+      </c>
+      <c r="H67" t="s">
+        <v>113</v>
+      </c>
+      <c r="I67">
+        <v>0.16858718664966466</v>
+      </c>
+    </row>
+    <row r="68" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G68" t="s">
+        <v>145</v>
+      </c>
+      <c r="H68" t="s">
+        <v>114</v>
+      </c>
+      <c r="I68">
+        <v>2.4479538089947891E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G69" t="s">
+        <v>145</v>
+      </c>
+      <c r="H69" t="s">
+        <v>115</v>
+      </c>
+      <c r="I69">
+        <v>2.4601854058555934E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G70" t="s">
+        <v>145</v>
+      </c>
+      <c r="H70" t="s">
+        <v>116</v>
+      </c>
+      <c r="I70">
+        <v>2.4625729807562207E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G71" t="s">
+        <v>145</v>
+      </c>
+      <c r="H71" t="s">
+        <v>117</v>
+      </c>
+      <c r="I71">
+        <v>0.14778493599747874</v>
+      </c>
+    </row>
+    <row r="72" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G72" t="s">
+        <v>145</v>
+      </c>
+      <c r="H72" t="s">
+        <v>118</v>
+      </c>
+      <c r="I72">
+        <v>2.4626071142722337E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G73" t="s">
+        <v>145</v>
+      </c>
+      <c r="H73" t="s">
+        <v>119</v>
+      </c>
+      <c r="I73">
+        <v>2.4620247130315579E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G74" t="s">
+        <v>145</v>
+      </c>
+      <c r="H74" t="s">
+        <v>120</v>
+      </c>
+      <c r="I74">
+        <v>0.14675030169445274</v>
+      </c>
+    </row>
+    <row r="75" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G75" t="s">
+        <v>145</v>
+      </c>
+      <c r="H75" t="s">
+        <v>121</v>
+      </c>
+      <c r="I75">
+        <v>2.3608918188345339E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G76" t="s">
+        <v>145</v>
+      </c>
+      <c r="H76" t="s">
+        <v>122</v>
+      </c>
+      <c r="I76">
+        <v>3.4282879076749499E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G77" t="s">
+        <v>145</v>
+      </c>
+      <c r="H77" t="s">
+        <v>123</v>
+      </c>
+      <c r="I77">
+        <v>3.446318930003535E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G78" t="s">
+        <v>145</v>
+      </c>
+      <c r="H78" t="s">
+        <v>124</v>
+      </c>
+      <c r="I78">
+        <v>3.4554154970106018E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G79" t="s">
+        <v>145</v>
+      </c>
+      <c r="H79" t="s">
+        <v>125</v>
+      </c>
+      <c r="I79">
+        <v>2.071060760430769E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G80" t="s">
+        <v>145</v>
+      </c>
+      <c r="H80" t="s">
+        <v>126</v>
+      </c>
+      <c r="I80">
+        <v>3.4567817382715887E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G81" t="s">
+        <v>145</v>
+      </c>
+      <c r="H81" t="s">
+        <v>127</v>
+      </c>
+      <c r="I81">
+        <v>3.4625649225501322E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G82" t="s">
+        <v>145</v>
+      </c>
+      <c r="H82" t="s">
+        <v>128</v>
+      </c>
+      <c r="I82">
+        <v>2.0626294817687851E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G83" t="s">
+        <v>145</v>
+      </c>
+      <c r="H83" t="s">
+        <v>129</v>
+      </c>
+      <c r="I83">
+        <v>2.4346837231742961E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G84" t="s">
+        <v>145</v>
+      </c>
+      <c r="H84" t="s">
+        <v>130</v>
+      </c>
+      <c r="I84">
+        <v>3.5660212779751268E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G85" t="s">
+        <v>145</v>
+      </c>
+      <c r="H85" t="s">
+        <v>131</v>
+      </c>
+      <c r="I85">
+        <v>3.5792015584238993E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G86" t="s">
+        <v>145</v>
+      </c>
+      <c r="H86" t="s">
+        <v>132</v>
+      </c>
+      <c r="I86">
+        <v>3.5841309544918853E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G87" t="s">
+        <v>145</v>
+      </c>
+      <c r="H87" t="s">
+        <v>133</v>
+      </c>
+      <c r="I87">
+        <v>2.1434712950872816E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G88" t="s">
+        <v>145</v>
+      </c>
+      <c r="H88" t="s">
+        <v>134</v>
+      </c>
+      <c r="I88">
+        <v>3.5839085012344934E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G89" t="s">
+        <v>145</v>
+      </c>
+      <c r="H89" t="s">
+        <v>135</v>
+      </c>
+      <c r="I89">
+        <v>3.5935628525225784E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G90" t="s">
+        <v>145</v>
+      </c>
+      <c r="H90" t="s">
+        <v>136</v>
+      </c>
+      <c r="I90">
+        <v>2.12937511363584E-2</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88E46AF2-3A1A-4F83-887A-F7190CC059AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6CBE746-7E9C-4C45-9D06-B1687B7177DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -468,10 +468,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2aH6,S3aH5,S5aH3,S4aH2,S4aH5,S5aH4,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH3,S3aH2,S3aH3,S1aH6,S2aH7,S3aH4,S4aH3,S4aH4,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S3aH7,S1aH4,S2aH2,S4aH6</t>
-  </si>
-  <si>
-    <t>S1aH8,S5aH1,S2aH1,S5aH8,S3aH1,S4aH8,S3aH8,S1aH1,S2aH8,S4aH1</t>
+    <t>S1aH3,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S3aH3,S3aH2,S4aH2,S1aH4,S2aH2,S4aH6,S5aH4,S2aH6,S3aH5,S5aH3,S3aH7,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH6,S2aH7,S3aH4,S4aH3,S4aH4,S4aH5</t>
+  </si>
+  <si>
+    <t>S3aH8,S4aH8,S2aH1,S5aH8,S4aH1,S1aH1,S1aH8,S5aH1,S2aH8,S3aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH8,S5aH1,S2aH1,S5aH8,S3aH1,S4aH8,S3aH8,S1aH1,S2aH8,S4aH1</v>
+        <v>S3aH8,S4aH8,S2aH1,S5aH8,S4aH1,S1aH1,S1aH8,S5aH1,S2aH8,S3aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2aH6,S3aH5,S5aH3,S4aH2,S4aH5,S5aH4,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH3,S3aH2,S3aH3,S1aH6,S2aH7,S3aH4,S4aH3,S4aH4,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S3aH7,S1aH4,S2aH2,S4aH6</v>
+        <v>S1aH3,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S3aH3,S3aH2,S4aH2,S1aH4,S2aH2,S4aH6,S5aH4,S2aH6,S3aH5,S5aH3,S3aH7,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH6,S2aH7,S3aH4,S4aH3,S4aH4,S4aH5</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1688,7 +1688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FD31A7-2DEF-4157-B68A-62981C525A43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F292889B-98B8-4B80-9C4D-DC841E746AA0}">
   <dimension ref="B9:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1808,7 +1808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40A43E0-AFD1-4A5E-99C9-A4E65B083FBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B212D468-800A-486B-A43B-03CACD310E32}">
   <dimension ref="B9:S50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1914,10 +1914,10 @@
         <v>97</v>
       </c>
       <c r="Q11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R11">
-        <v>7.5520592318371119E-2</v>
+        <v>7.7845904673762151E-2</v>
       </c>
       <c r="S11" t="s">
         <v>150</v>
@@ -1961,10 +1961,10 @@
         <v>97</v>
       </c>
       <c r="Q12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R12">
-        <v>8.4821841739935219E-2</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="S12" t="s">
         <v>150</v>
@@ -2055,10 +2055,10 @@
         <v>97</v>
       </c>
       <c r="Q14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R14">
-        <v>7.7845904673762151E-2</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="S14" t="s">
         <v>150</v>
@@ -3447,7 +3447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE4C29A-030D-4E46-9844-8F5F8CC8EBE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341D165E-4365-472E-A8FE-FB8F2C756276}">
   <dimension ref="B9:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6CBE746-7E9C-4C45-9D06-B1687B7177DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A23B4FBB-4875-4DD5-BD59-76ED04FE32F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -468,10 +468,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S3aH3,S3aH2,S4aH2,S1aH4,S2aH2,S4aH6,S5aH4,S2aH6,S3aH5,S5aH3,S3aH7,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH6,S2aH7,S3aH4,S4aH3,S4aH4,S4aH5</t>
-  </si>
-  <si>
-    <t>S3aH8,S4aH8,S2aH1,S5aH8,S4aH1,S1aH1,S1aH8,S5aH1,S2aH8,S3aH1</t>
+    <t>S4aH2,S1aH3,S3aH2,S3aH3,S5aH4,S3aH7,S4aH5,S1aH6,S2aH6,S3aH5,S5aH3,S2aH7,S3aH4,S4aH3,S4aH4,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH4,S2aH2,S4aH6,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5</t>
+  </si>
+  <si>
+    <t>S2aH1,S5aH8,S1aH1,S3aH8,S4aH8,S3aH1,S2aH8,S1aH8,S5aH1,S4aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3aH8,S4aH8,S2aH1,S5aH8,S4aH1,S1aH1,S1aH8,S5aH1,S2aH8,S3aH1</v>
+        <v>S2aH1,S5aH8,S1aH1,S3aH8,S4aH8,S3aH1,S2aH8,S1aH8,S5aH1,S4aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S3aH3,S3aH2,S4aH2,S1aH4,S2aH2,S4aH6,S5aH4,S2aH6,S3aH5,S5aH3,S3aH7,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH6,S2aH7,S3aH4,S4aH3,S4aH4,S4aH5</v>
+        <v>S4aH2,S1aH3,S3aH2,S3aH3,S5aH4,S3aH7,S4aH5,S1aH6,S2aH6,S3aH5,S5aH3,S2aH7,S3aH4,S4aH3,S4aH4,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH4,S2aH2,S4aH6,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1688,7 +1688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F292889B-98B8-4B80-9C4D-DC841E746AA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21244C0F-C6E9-427D-80A1-9478370DF471}">
   <dimension ref="B9:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1808,7 +1808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B212D468-800A-486B-A43B-03CACD310E32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D31304-AF26-4E54-B4E0-EA8DECA3A13B}">
   <dimension ref="B9:S50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1908,7 +1908,7 @@
         <v>96</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.82325241216655E-2</v>
       </c>
       <c r="O11" t="s">
         <v>97</v>
@@ -1955,7 +1955,7 @@
         <v>98</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.0064341039034391E-2</v>
       </c>
       <c r="O12" t="s">
         <v>97</v>
@@ -2002,16 +2002,16 @@
         <v>99</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.0053840550443846E-2</v>
       </c>
       <c r="O13" t="s">
         <v>97</v>
       </c>
       <c r="Q13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R13">
-        <v>0.81410226746876446</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="S13" t="s">
         <v>150</v>
@@ -2049,16 +2049,16 @@
         <v>100</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>9.9879348718522783E-3</v>
       </c>
       <c r="O14" t="s">
         <v>97</v>
       </c>
       <c r="Q14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R14">
-        <v>8.4821841739935219E-2</v>
+        <v>0.81410226746876446</v>
       </c>
       <c r="S14" t="s">
         <v>150</v>
@@ -2096,7 +2096,7 @@
         <v>101</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.0792920303432134E-2</v>
       </c>
       <c r="O15" t="s">
         <v>97</v>
@@ -2143,7 +2143,7 @@
         <v>102</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.0040614148058175E-2</v>
       </c>
       <c r="O16" t="s">
         <v>97</v>
@@ -2181,7 +2181,7 @@
         <v>103</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>9.9745987670680752E-3</v>
       </c>
       <c r="O17" t="s">
         <v>97</v>
@@ -2219,7 +2219,7 @@
         <v>104</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.8119770666056537E-2</v>
       </c>
       <c r="O18" t="s">
         <v>97</v>
@@ -2257,7 +2257,7 @@
         <v>105</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>3.8375118931494201E-2</v>
       </c>
       <c r="O19" t="s">
         <v>97</v>
@@ -2295,7 +2295,7 @@
         <v>106</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.3450624963613629E-3</v>
       </c>
       <c r="O20" t="s">
         <v>97</v>
@@ -2333,7 +2333,7 @@
         <v>107</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.2757724208315829E-3</v>
       </c>
       <c r="O21" t="s">
         <v>97</v>
@@ -2371,7 +2371,7 @@
         <v>108</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.2449034015103913E-3</v>
       </c>
       <c r="O22" t="s">
         <v>97</v>
@@ -2409,7 +2409,7 @@
         <v>109</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>3.2253569290825734E-2</v>
       </c>
       <c r="O23" t="s">
         <v>97</v>
@@ -2447,7 +2447,7 @@
         <v>110</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.5064871848617535E-3</v>
       </c>
       <c r="O24" t="s">
         <v>97</v>
@@ -2485,7 +2485,7 @@
         <v>111</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.5870317896012491E-3</v>
       </c>
       <c r="O25" t="s">
         <v>97</v>
@@ -2523,7 +2523,7 @@
         <v>112</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>3.2904049220948452E-2</v>
       </c>
       <c r="O26" t="s">
         <v>97</v>
@@ -2561,7 +2561,7 @@
         <v>113</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>0.13470775990084147</v>
       </c>
       <c r="O27" t="s">
         <v>97</v>
@@ -2599,7 +2599,7 @@
         <v>114</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1.7906110932828567E-2</v>
       </c>
       <c r="O28" t="s">
         <v>97</v>
@@ -2637,7 +2637,7 @@
         <v>115</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1.7662605018771465E-2</v>
       </c>
       <c r="O29" t="s">
         <v>97</v>
@@ -2675,7 +2675,7 @@
         <v>116</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1.7541144373550716E-2</v>
       </c>
       <c r="O30" t="s">
         <v>97</v>
@@ -2713,7 +2713,7 @@
         <v>117</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>0.11075349282913861</v>
       </c>
       <c r="O31" t="s">
         <v>97</v>
@@ -2751,7 +2751,7 @@
         <v>118</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>2.0423104643675052E-2</v>
       </c>
       <c r="O32" t="s">
         <v>97</v>
@@ -2789,7 +2789,7 @@
         <v>119</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>2.0688393709751108E-2</v>
       </c>
       <c r="O33" t="s">
         <v>97</v>
@@ -2827,7 +2827,7 @@
         <v>120</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>0.12284491767933799</v>
       </c>
       <c r="O34" t="s">
         <v>97</v>
@@ -2865,7 +2865,7 @@
         <v>121</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>3.076516287723392E-2</v>
       </c>
       <c r="O35" t="s">
         <v>97</v>
@@ -2903,7 +2903,7 @@
         <v>122</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>4.1971271016678496E-3</v>
       </c>
       <c r="O36" t="s">
         <v>97</v>
@@ -2941,7 +2941,7 @@
         <v>123</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>4.1004062264624781E-3</v>
       </c>
       <c r="O37" t="s">
         <v>97</v>
@@ -2979,7 +2979,7 @@
         <v>124</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>4.0255399778688682E-3</v>
       </c>
       <c r="O38" t="s">
         <v>97</v>
@@ -3017,7 +3017,7 @@
         <v>125</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>2.3322213983746443E-2</v>
       </c>
       <c r="O39" t="s">
         <v>97</v>
@@ -3055,7 +3055,7 @@
         <v>126</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>4.0592208003663978E-3</v>
       </c>
       <c r="O40" t="s">
         <v>97</v>
@@ -3093,7 +3093,7 @@
         <v>127</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>4.1210425341255304E-3</v>
       </c>
       <c r="O41" t="s">
         <v>97</v>
@@ -3131,7 +3131,7 @@
         <v>128</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>2.6532671361551369E-2</v>
       </c>
       <c r="O42" t="s">
         <v>97</v>
@@ -3169,7 +3169,7 @@
         <v>129</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>2.048320543136058E-2</v>
       </c>
       <c r="O43" t="s">
         <v>97</v>
@@ -3207,7 +3207,7 @@
         <v>130</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>2.7219450284947876E-3</v>
       </c>
       <c r="O44" t="s">
         <v>97</v>
@@ -3245,7 +3245,7 @@
         <v>131</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>2.6982214942662254E-3</v>
       </c>
       <c r="O45" t="s">
         <v>97</v>
@@ -3283,7 +3283,7 @@
         <v>132</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>2.7104471926864219E-3</v>
       </c>
       <c r="O46" t="s">
         <v>97</v>
@@ -3321,7 +3321,7 @@
         <v>133</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>1.6573906647167156E-2</v>
       </c>
       <c r="O47" t="s">
         <v>97</v>
@@ -3359,7 +3359,7 @@
         <v>134</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>2.8729049965876639E-3</v>
       </c>
       <c r="O48" t="s">
         <v>97</v>
@@ -3397,7 +3397,7 @@
         <v>135</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>2.9121969268978559E-3</v>
       </c>
       <c r="O49" t="s">
         <v>97</v>
@@ -3435,7 +3435,7 @@
         <v>136</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>1.761771912737203E-2</v>
       </c>
       <c r="O50" t="s">
         <v>97</v>
@@ -3447,7 +3447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341D165E-4365-472E-A8FE-FB8F2C756276}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16ED414-834D-4CAD-9A13-2E3A5ECAC615}">
   <dimension ref="B9:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A23B4FBB-4875-4DD5-BD59-76ED04FE32F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A61D412F-965B-48B6-860D-9FBDFF80A463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -468,10 +468,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S4aH2,S1aH3,S3aH2,S3aH3,S5aH4,S3aH7,S4aH5,S1aH6,S2aH6,S3aH5,S5aH3,S2aH7,S3aH4,S4aH3,S4aH4,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH4,S2aH2,S4aH6,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5</t>
-  </si>
-  <si>
-    <t>S2aH1,S5aH8,S1aH1,S3aH8,S4aH8,S3aH1,S2aH8,S1aH8,S5aH1,S4aH1</t>
+    <t>S1aH4,S2aH2,S4aH6,S2aH6,S3aH5,S5aH3,S4aH5,S1aH3,S3aH3,S2aH7,S3aH4,S4aH3,S4aH4,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S4aH2,S3aH7,S1aH6,S3aH2,S5aH4,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7</t>
+  </si>
+  <si>
+    <t>S4aH1,S1aH8,S5aH1,S2aH1,S5aH8,S4aH8,S3aH1,S2aH8,S3aH8,S1aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH1,S5aH8,S1aH1,S3aH8,S4aH8,S3aH1,S2aH8,S1aH8,S5aH1,S4aH1</v>
+        <v>S4aH1,S1aH8,S5aH1,S2aH1,S5aH8,S4aH8,S3aH1,S2aH8,S3aH8,S1aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S4aH2,S1aH3,S3aH2,S3aH3,S5aH4,S3aH7,S4aH5,S1aH6,S2aH6,S3aH5,S5aH3,S2aH7,S3aH4,S4aH3,S4aH4,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH4,S2aH2,S4aH6,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5</v>
+        <v>S1aH4,S2aH2,S4aH6,S2aH6,S3aH5,S5aH3,S4aH5,S1aH3,S3aH3,S2aH7,S3aH4,S4aH3,S4aH4,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S4aH2,S3aH7,S1aH6,S3aH2,S5aH4,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1688,7 +1688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21244C0F-C6E9-427D-80A1-9478370DF471}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFBB397-A3DD-4EA8-821C-D85CE59EE7AC}">
   <dimension ref="B9:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1808,7 +1808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D31304-AF26-4E54-B4E0-EA8DECA3A13B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9E7956-C0AA-45C3-A718-30D657B54DC1}">
   <dimension ref="B9:S50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1961,10 +1961,10 @@
         <v>97</v>
       </c>
       <c r="Q12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R12">
-        <v>7.5520592318371119E-2</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="S12" t="s">
         <v>150</v>
@@ -2008,10 +2008,10 @@
         <v>97</v>
       </c>
       <c r="Q13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R13">
-        <v>8.4821841739935219E-2</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="S13" t="s">
         <v>150</v>
@@ -2055,10 +2055,10 @@
         <v>97</v>
       </c>
       <c r="Q14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="R14">
-        <v>0.81410226746876446</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="S14" t="s">
         <v>150</v>
@@ -2102,10 +2102,10 @@
         <v>97</v>
       </c>
       <c r="Q15" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R15">
-        <v>0.14770939379916706</v>
+        <v>0.81410226746876457</v>
       </c>
       <c r="S15" t="s">
         <v>150</v>
@@ -3447,7 +3447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16ED414-834D-4CAD-9A13-2E3A5ECAC615}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E3832E-6A45-4CD2-B778-D3FEACA4EE7B}">
   <dimension ref="B9:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9D44452-1710-4FC5-B427-3518F04E0A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D9CF713-D0B8-4FF4-89F8-105E4C19CE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -312,13 +312,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1aH3,S5aH4,S3aH2,S2aH7,S3aH4,S4aH3,S4aH4,S1aH4,S2aH2,S4aH6,S4aH2,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S3aH7,S2aH6,S3aH5,S5aH3,S3aH3,S1aH6,S4aH5,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5</t>
+    <t>S4aH2,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH6,S1aH4,S2aH2,S4aH6,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5aH4,S3aH2,S2aH7,S3aH4,S4aH3,S4aH4,S1aH3,S3aH7,S3aH3,S2aH6,S3aH5,S5aH3,S4aH5</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S3aH8,S4aH8,S4aH1,S3aH1,S2aH1,S5aH8,S1aH1,S2aH8,S1aH8,S5aH1</t>
+    <t>S2aH1,S5aH8,S3aH1,S4aH1,S3aH8,S1aH1,S2aH8,S4aH8,S1aH8,S5aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -921,7 +921,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S3aH8,S4aH8,S4aH1,S3aH1,S2aH1,S5aH8,S1aH1,S2aH8,S1aH8,S5aH1</v>
+        <v>S2aH1,S5aH8,S3aH1,S4aH1,S3aH8,S1aH1,S2aH8,S4aH8,S1aH8,S5aH1</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -953,7 +953,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S1aH3,S5aH4,S3aH2,S2aH7,S3aH4,S4aH3,S4aH4,S1aH4,S2aH2,S4aH6,S4aH2,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S3aH7,S2aH6,S3aH5,S5aH3,S3aH3,S1aH6,S4aH5,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5</v>
+        <v>S4aH2,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH6,S1aH4,S2aH2,S4aH6,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5aH4,S3aH2,S2aH7,S3aH4,S4aH3,S4aH4,S1aH3,S3aH7,S3aH3,S2aH6,S3aH5,S5aH3,S4aH5</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -969,7 +969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF34EE4-F3F4-4C98-8D65-80E88767194B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F652DDF8-DA82-427C-8E09-8F1788E06C46}">
   <dimension ref="A9:AM90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1192,10 +1192,10 @@
         <v>0.29524362667493453</v>
       </c>
       <c r="AK11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL11">
-        <v>8.4821841739935219E-2</v>
+        <v>0.81410226746876446</v>
       </c>
       <c r="AM11" t="s">
         <v>98</v>
@@ -1278,10 +1278,10 @@
         <v>4.7126123672023956E-2</v>
       </c>
       <c r="AK12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AL12">
-        <v>7.5520592318371119E-2</v>
+        <v>7.7845904673762151E-2</v>
       </c>
       <c r="AM12" t="s">
         <v>98</v>
@@ -1364,10 +1364,10 @@
         <v>4.7484009459135335E-2</v>
       </c>
       <c r="AK13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL13">
-        <v>7.7845904673762151E-2</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="AM13" t="s">
         <v>98</v>
@@ -1450,10 +1450,10 @@
         <v>4.5197330291383508E-2</v>
       </c>
       <c r="AK14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL14">
-        <v>0.81410226746876446</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="AM14" t="s">
         <v>98</v>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31D3C7FF-BD92-46EA-BCB1-C66200CFCDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74CEC469-40C3-4428-A90E-EAA4264EEBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -312,13 +312,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S4aH2,S4aH5,S1aH6,S5aH4,S3aH2,S2aH6,S3aH5,S5aH3,S2aH7,S3aH4,S4aH3,S4aH4,S3aH7,S1aH3,S1aH4,S2aH2,S4aH6,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S3aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5</t>
+    <t>S2aH6,S3aH5,S5aH3,S4aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S4aH5,S1aH6,S2aH7,S3aH4,S4aH3,S4aH4,S3aH2,S3aH3,S1aH4,S2aH2,S4aH6,S1aH3,S5aH4,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S3aH7</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S2aH1,S5aH8,S3aH8,S1aH8,S5aH1,S2aH8,S3aH1,S4aH1,S1aH1,S4aH8</t>
+    <t>S1aH8,S5aH1,S2aH1,S5aH8,S3aH8,S1aH1,S4aH1,S2aH8,S3aH1,S4aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -921,7 +921,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S2aH1,S5aH8,S3aH8,S1aH8,S5aH1,S2aH8,S3aH1,S4aH1,S1aH1,S4aH8</v>
+        <v>S1aH8,S5aH1,S2aH1,S5aH8,S3aH8,S1aH1,S4aH1,S2aH8,S3aH1,S4aH8</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -953,7 +953,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S4aH2,S4aH5,S1aH6,S5aH4,S3aH2,S2aH6,S3aH5,S5aH3,S2aH7,S3aH4,S4aH3,S4aH4,S3aH7,S1aH3,S1aH4,S2aH2,S4aH6,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S3aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5</v>
+        <v>S2aH6,S3aH5,S5aH3,S4aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S4aH5,S1aH6,S2aH7,S3aH4,S4aH3,S4aH4,S3aH2,S3aH3,S1aH4,S2aH2,S4aH6,S1aH3,S5aH4,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S3aH7</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -969,7 +969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD2C57B-36C0-44D3-84C8-68A861B639E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7317A6B-E7D9-4D7B-BD82-E718FB408F5F}">
   <dimension ref="A9:AM90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1278,10 +1278,10 @@
         <v>4.7126123672023956E-2</v>
       </c>
       <c r="AK12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AL12">
-        <v>0.81410226746876446</v>
+        <v>7.7845904673762151E-2</v>
       </c>
       <c r="AM12" t="s">
         <v>98</v>
@@ -1364,10 +1364,10 @@
         <v>4.7484009459135335E-2</v>
       </c>
       <c r="AK13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AL13">
-        <v>0.14770939379916706</v>
+        <v>0.81410226746876446</v>
       </c>
       <c r="AM13" t="s">
         <v>98</v>
@@ -1536,10 +1536,10 @@
         <v>6.4766514599613911E-2</v>
       </c>
       <c r="AK15" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AL15">
-        <v>7.7845904673762151E-2</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="AM15" t="s">
         <v>98</v>
